--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail14 Features.xlsx
@@ -6448,7 +6448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,29 +6459,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6502,115 +6500,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6627,72 +6615,66 @@
         <v>2.690284386829019e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.3816115297763469</v>
+        <v>6.786034460446512e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.617443668598091</v>
+        <v>1.121285118870269e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.786034460446512e-07</v>
+        <v>0.01286673673412015</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.121285118870269e-06</v>
+        <v>0.1105001657173294</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01286673673412015</v>
+        <v>0.01236229975743639</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1105001657173294</v>
+        <v>1.754818274323894</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01236229975743639</v>
+        <v>1.624554809875891</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.673257943236961</v>
+        <v>4.399846237420318</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.624554809875891</v>
+        <v>6.335762513994171e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.399846237420318</v>
+        <v>139938522.0291225</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.335762513994171e-16</v>
+        <v>8.416020537189411e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>139938522.0291225</v>
+        <v>12.40719064700292</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.416020537189411e-07</v>
+        <v>0.0001331105452361394</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>12.40719064700292</v>
+        <v>8.335126307068867</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001331105452361394</v>
+        <v>1.453179194953357</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.335126307068867</v>
+        <v>0.009247766020064076</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.453179194953357</v>
+        <v>3.126703359355096</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009247766020064076</v>
+        <v>0.9565786842964291</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.126703359355096</v>
+        <v>1.725548650588012</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9565786842964291</v>
+        <v>37</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.725548650588012</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2204849042350213</v>
       </c>
     </row>
@@ -6707,72 +6689,66 @@
         <v>2.692902953821854e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.425278066915586</v>
+        <v>6.786034460446512e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.595491170091406</v>
+        <v>1.125717129254596e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.786034460446512e-07</v>
+        <v>0.01971674125862904</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.125717129254596e-06</v>
+        <v>0.09675901804825389</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01971674125862904</v>
+        <v>0.009743909353148783</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.09675901804825389</v>
+        <v>1.764097640199735</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.009743909353148783</v>
+        <v>1.656251263355447</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.688884383150353</v>
+        <v>4.098356162874378</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.656251263355447</v>
+        <v>8.38498698408798e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.098356162874378</v>
+        <v>106002834.3471577</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.38498698408798e-16</v>
+        <v>1.108676975171118e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>106002834.3471577</v>
+        <v>9.421875220494696</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.108676975171118e-06</v>
+        <v>0.0001707380124894396</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>9.421875220494696</v>
+        <v>11.68885548503137</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001707380124894396</v>
+        <v>1.109912157215575</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.68885548503137</v>
+        <v>0.02332782239471693</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.109912157215575</v>
+        <v>2.749218254047356</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02332782239471693</v>
+        <v>0.9570327092535564</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.749218254047356</v>
+        <v>1.695150787114139</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9570327092535564</v>
+        <v>32</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.695150787114139</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2057606959666486</v>
       </c>
     </row>
@@ -6787,72 +6763,66 @@
         <v>2.686245652341692e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.4848669856873699</v>
+        <v>6.786034460446512e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.545291380591093</v>
+        <v>1.131771989137579e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.786034460446512e-07</v>
+        <v>0.02500414682245816</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.131771989137579e-06</v>
+        <v>0.08863604947725465</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02500414682245816</v>
+        <v>0.008478012182230578</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.08863604947725465</v>
+        <v>1.666484924017571</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.008478012182230578</v>
+        <v>1.670029560840881</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.591076838066936</v>
+        <v>4.112286438701592</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.670029560840881</v>
+        <v>8.9983204622695e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.112286438701592</v>
+        <v>101696393.9973774</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>8.9983204622695e-16</v>
+        <v>1.096811697400538e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>101696393.9973774</v>
+        <v>9.306203892648442</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.096811697400538e-06</v>
+        <v>0.0002029122787068885</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9.306203892648442</v>
+        <v>12.55746987399811</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002029122787068885</v>
+        <v>1.04129786333542</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.55746987399811</v>
+        <v>0.03199724730111822</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.04129786333542</v>
+        <v>2.382747935028846</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03199724730111822</v>
+        <v>0.9475944520653005</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.382747935028846</v>
+        <v>1.767038907358393</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9475944520653005</v>
+        <v>33</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.767038907358393</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1891782387252793</v>
       </c>
     </row>
@@ -6867,72 +6837,66 @@
         <v>2.668954618635362e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.5534630212770209</v>
+        <v>6.786034460446512e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.469332425121728</v>
+        <v>1.139006575766927e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.786034460446512e-07</v>
+        <v>0.02874006851030856</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.139006575766927e-06</v>
+        <v>0.08435956947844107</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02874006851030856</v>
+        <v>0.007940942912240172</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.08435956947844107</v>
+        <v>1.688577022295416</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.007940942912240172</v>
+        <v>1.478113059489887</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.60893837844903</v>
+        <v>4.092188268625273</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.478113059489887</v>
+        <v>1.157809476701746e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.092188268625273</v>
+        <v>75061323.08032237</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.157809476701746e-15</v>
+        <v>1.497435937788433e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>75061323.08032237</v>
+        <v>6.52333272694389</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.497435937788433e-06</v>
+        <v>0.0001975062810030696</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6.52333272694389</v>
+        <v>9.82217580380247</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001975062810030696</v>
+        <v>1.379992228285393</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.82217580380247</v>
+        <v>0.01905444562099343</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.379992228285393</v>
+        <v>2.695143328362439</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01905444562099343</v>
+        <v>0.9483286146453673</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.695143328362439</v>
+        <v>1.827936761827608</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9483286146453673</v>
+        <v>32</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.827936761827608</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1650777878564981</v>
       </c>
     </row>
@@ -6947,72 +6911,66 @@
         <v>2.641110238588746e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.6267369556646457</v>
+        <v>6.786034460446512e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.37151174502208</v>
+        <v>1.146993871017145e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.786034460446512e-07</v>
+        <v>0.03122132695065066</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.146993871017145e-06</v>
+        <v>0.08261549975328866</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03122132695065066</v>
+        <v>0.007799381157744796</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.08261549975328866</v>
+        <v>1.675472470448783</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.007799381157744796</v>
+        <v>1.495990320706562</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.594081995883718</v>
+        <v>4.019210021144755</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.495990320706562</v>
+        <v>1.200236724016376e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.019210021144755</v>
+        <v>70652581.48093729</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.200236724016376e-15</v>
+        <v>1.579906375871546e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>70652581.48093729</v>
+        <v>5.991326399836008</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.579906375871546e-06</v>
+        <v>0.000171222214833577</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5.991326399836008</v>
+        <v>8.71287840019056</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000171222214833577</v>
+        <v>1.548930754484831</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.71287840019056</v>
+        <v>0.01299820602525627</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.548930754484831</v>
+        <v>2.918697652312809</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01299820602525627</v>
+        <v>0.9467845079504233</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.918697652312809</v>
+        <v>1.838913848295342</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9467845079504233</v>
+        <v>32</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.838913848295342</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1580439049234145</v>
       </c>
     </row>
@@ -7027,72 +6985,66 @@
         <v>2.603306366074023e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.7025878880187717</v>
+        <v>6.786034460446512e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.254127107649706</v>
+        <v>1.155424182730097e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.786034460446512e-07</v>
+        <v>0.03294255791121947</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.155424182730097e-06</v>
+        <v>0.08241558148757508</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03294255791121947</v>
+        <v>0.007877213838196609</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08241558148757508</v>
+        <v>1.675823793561296</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.007877213838196609</v>
+        <v>1.581658475121446</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.594718473445594</v>
+        <v>3.970626977733041</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.581658475121446</v>
+        <v>1.229787668721419e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.970626977733041</v>
+        <v>66740815.81564398</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.229787668721419e-15</v>
+        <v>1.656032090156475e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>66740815.81564398</v>
+        <v>5.47788809479402</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.656032090156475e-06</v>
+        <v>0.0001488025956525024</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5.47788809479402</v>
+        <v>9.111620319101821</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001488025956525024</v>
+        <v>1.24596766819441</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.111620319101821</v>
+        <v>0.01235383327140128</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.24596766819441</v>
+        <v>2.888102380016058</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01235383327140128</v>
+        <v>0.945949898485612</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.888102380016058</v>
+        <v>1.811370214740224</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.945949898485612</v>
+        <v>32</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.811370214740224</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1652361590492746</v>
       </c>
     </row>
@@ -7107,72 +7059,66 @@
         <v>2.556238336886447e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.7800825857653131</v>
+        <v>6.786034460446512e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.117912356120909</v>
+        <v>1.164095546652084e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.786034460446512e-07</v>
+        <v>0.03417779269656813</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.164095546652084e-06</v>
+        <v>0.0833038972984636</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03417779269656813</v>
+        <v>0.008107552282639041</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.0833038972984636</v>
+        <v>1.668177408555951</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.008107552282639041</v>
+        <v>1.588545081460123</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.586564909932072</v>
+        <v>3.945857981223252</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.588545081460123</v>
+        <v>1.245275408269283e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.945857981223252</v>
+        <v>65451119.93340886</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.245275408269283e-15</v>
+        <v>1.682523052972804e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>65451119.93340886</v>
+        <v>5.334571937635798</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.682523052972804e-06</v>
+        <v>0.0001498824354414256</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>5.334571937635798</v>
+        <v>9.924641254507204</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001498824354414256</v>
+        <v>1.161997310442241</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.924641254507204</v>
+        <v>0.01476319567145334</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.161997310442241</v>
+        <v>2.702314572920665</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01476319567145334</v>
+        <v>0.945576404644889</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.702314572920665</v>
+        <v>1.832905075626568</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.945576404644889</v>
+        <v>32</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.832905075626568</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1719768313998365</v>
       </c>
     </row>
@@ -7187,72 +7133,66 @@
         <v>2.500806397888199e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.8588605439150706</v>
+        <v>6.786034460446512e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.9624788981158039</v>
+        <v>1.172860503155602e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.786034460446512e-07</v>
+        <v>0.0350705519581398</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.172860503155602e-06</v>
+        <v>0.08502777567626434</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.0350705519581398</v>
+        <v>0.008459668169088226</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08502777567626434</v>
+        <v>1.669088559951977</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.008459668169088226</v>
+        <v>1.622224070135962</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.587662114165595</v>
+        <v>3.937585607843759</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.622224070135962</v>
+        <v>1.250513239326861e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.937585607843759</v>
+        <v>66505798.30229294</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.250513239326861e-15</v>
+        <v>1.663622711979689e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>66505798.30229294</v>
+        <v>5.531046578208985</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.663622711979689e-06</v>
+        <v>0.0001524564105330325</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>5.531046578208985</v>
+        <v>9.980147919124789</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001524564105330325</v>
+        <v>1.16759729007013</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.980147919124789</v>
+        <v>0.01518516959731755</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.16759729007013</v>
+        <v>2.677754709929292</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01518516959731755</v>
+        <v>0.9476376053089433</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.677754709929292</v>
+        <v>1.829635924467253</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9476376053089433</v>
+        <v>30</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.829635924467253</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1703179390589621</v>
       </c>
     </row>
@@ -7267,72 +7207,66 @@
         <v>2.437957594888371e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.9388720967932345</v>
+        <v>6.786034460446512e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.7864264822037672</v>
+        <v>1.181608943036718e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.786034460446512e-07</v>
+        <v>0.03571594928688784</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.181608943036718e-06</v>
+        <v>0.08741561555153042</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03571594928688784</v>
+        <v>0.008917167252509479</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08741561555153042</v>
+        <v>1.664458652327607</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.008917167252509479</v>
+        <v>1.577883813546971</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.587467158546687</v>
+        <v>3.93120128433024</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.577883813546971</v>
+        <v>1.254578237937909e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.93120128433024</v>
+        <v>66070134.35328288</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.254578237937909e-15</v>
+        <v>1.672990393758825e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>66070134.35328288</v>
+        <v>5.476563527915075</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.672990393758825e-06</v>
+        <v>0.0001557972858099597</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>5.476563527915075</v>
+        <v>8.915137200270321</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001557972858099597</v>
+        <v>1.296911721786593</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.915137200270321</v>
+        <v>0.01238271706555225</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.296911721786593</v>
+        <v>2.859238185015772</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01238271706555225</v>
+        <v>0.9488906068221863</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.859238185015772</v>
+        <v>1.816222014772535</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9488906068221863</v>
+        <v>21</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.816222014772535</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1578471823965935</v>
       </c>
     </row>
@@ -7347,72 +7281,66 @@
         <v>2.368591173380046e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-1.020203331364406</v>
+        <v>6.786034460446512e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.5874520379461039</v>
+        <v>1.190255075301027e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.786034460446512e-07</v>
+        <v>0.03619147837675287</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.190255075301027e-06</v>
+        <v>0.090365560388202</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.03619147837675287</v>
+        <v>0.009475802876833587</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.090365560388202</v>
+        <v>1.669929285807027</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.009475802876833587</v>
+        <v>1.543023751891681</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.592732598964787</v>
+        <v>3.940015984897851</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.543023751891681</v>
+        <v>1.2489709708022e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.940015984897851</v>
+        <v>67016814.0206547</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.2489709708022e-15</v>
+        <v>1.654968842099997e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>67016814.0206547</v>
+        <v>5.609445071005094</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.654968842099997e-06</v>
+        <v>0.000173757763884845</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>5.609445071005094</v>
+        <v>8.530290538403252</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000173757763884845</v>
+        <v>1.574021982591522</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.530290538403252</v>
+        <v>0.01264363254206997</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.574021982591522</v>
+        <v>2.882550389266088</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01264363254206997</v>
+        <v>0.9505337641367335</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.882550389266088</v>
+        <v>1.829281190681141</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9505337641367335</v>
+        <v>21</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.829281190681141</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.146595167511012</v>
       </c>
     </row>
@@ -7427,72 +7355,66 @@
         <v>2.293183480476532e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-1.102750690742674</v>
+        <v>6.785453725103399e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.3630025438766054</v>
+        <v>1.198744896233955e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.785453725103399e-07</v>
+        <v>0.03662574488528889</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.198744896233955e-06</v>
+        <v>0.09382710538178386</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03662574488528889</v>
+        <v>0.01014499981195652</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.09382710538178386</v>
+        <v>1.685657124025555</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01014499981195652</v>
+        <v>1.600971694441316</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.613452938874384</v>
+        <v>3.966411357972876</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.600971694441316</v>
+        <v>1.232403167595365e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.966411357972876</v>
+        <v>70111131.54307805</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.232403167595365e-15</v>
+        <v>1.601586249091055e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>70111131.54307805</v>
+        <v>6.057964982866656</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.601586249091055e-06</v>
+        <v>0.0001586710740921818</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>6.057964982866656</v>
+        <v>9.224710229504554</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001586710740921818</v>
+        <v>1.281458698628238</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.224710229504554</v>
+        <v>0.01350215929027747</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.281458698628238</v>
+        <v>2.841419059652466</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01350215929027747</v>
+        <v>0.9496043862856259</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.841419059652466</v>
+        <v>1.83479355112469</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9496043862856259</v>
+        <v>21</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.83479355112469</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1552644742041076</v>
       </c>
     </row>
@@ -7507,72 +7429,66 @@
         <v>2.211793832049987e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-1.186010477083016</v>
+        <v>6.779924023863105e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.1109506685054371</v>
+        <v>1.207050215836787e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.779924023863105e-07</v>
+        <v>0.03710030714457557</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.207050215836787e-06</v>
+        <v>0.09782800761593462</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03710030714457557</v>
+        <v>0.01094676318779471</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.09782800761593462</v>
+        <v>1.687508885291087</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01094676318779471</v>
+        <v>1.617218670616073</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.615321671593568</v>
+        <v>3.965578203035451</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.617218670616073</v>
+        <v>1.232921069698538e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.965578203035451</v>
+        <v>69589283.23889191</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.232921069698538e-15</v>
+        <v>1.612156374548679e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>69589283.23889191</v>
+        <v>5.970627832047365</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.612156374548679e-06</v>
+        <v>0.0001536035410945995</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>5.970627832047365</v>
+        <v>10.19811977450768</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001536035410945995</v>
+        <v>1.148600797782425</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.19811977450768</v>
+        <v>0.01597502124891771</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.148600797782425</v>
+        <v>2.649622477493773</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01597502124891771</v>
+        <v>0.9491727031533426</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.649622477493773</v>
+        <v>1.815168954587546</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9491727031533426</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.815168954587546</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1686589818925357</v>
       </c>
     </row>
@@ -7587,72 +7503,66 @@
         <v>2.124270268885902e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-1.268946549733746</v>
+        <v>6.768209141561033e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.1698221033684981</v>
+        <v>1.215155563558582e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.768209141561033e-07</v>
+        <v>0.03765555609089657</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.215155563558582e-06</v>
+        <v>0.102447955981604</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03765555609089657</v>
+        <v>0.01191352326701267</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.102447955981604</v>
+        <v>1.685737474388795</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01191352326701267</v>
+        <v>1.553129021789033</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.615928328063847</v>
+        <v>3.978045481339271</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.553129021789033</v>
+        <v>1.225205178369903e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.978045481339271</v>
+        <v>67174987.02809575</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.225205178369903e-15</v>
+        <v>1.646548331845769e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>67174987.02809575</v>
+        <v>5.528712493786696</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.646548331845769e-06</v>
+        <v>0.000150206349700053</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>5.528712493786696</v>
+        <v>9.783839873918948</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000150206349700053</v>
+        <v>1.163175601911422</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.783839873918948</v>
+        <v>0.01437828092196567</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.163175601911422</v>
+        <v>2.719385314214387</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01437828092196567</v>
+        <v>0.949016019104489</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.719385314214387</v>
+        <v>1.812608162538041</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.949016019104489</v>
+        <v>38</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.812608162538041</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1690494896396974</v>
       </c>
     </row>
@@ -7667,72 +7577,66 @@
         <v>2.030505810576312e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-1.349870371249051</v>
+        <v>6.745233899806052e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.4788305709535314</v>
+        <v>1.223045004859536e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.745233899806052e-07</v>
+        <v>0.03827596255529799</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.223045004859536e-06</v>
+        <v>0.1078143498890251</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03827596255529799</v>
+        <v>0.01308895134216718</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1078143498890251</v>
+        <v>1.691585597356926</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01308895134216718</v>
+        <v>1.496744201771957</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.620957119548335</v>
+        <v>4.057633803139268</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.496744201771957</v>
+        <v>1.177613056688382e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.057633803139268</v>
+        <v>68834566.22983827</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.177613056688382e-15</v>
+        <v>1.61609597488739e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>68834566.22983827</v>
+        <v>5.579763250648024</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.61609597488739e-06</v>
+        <v>0.000149196757576806</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>5.579763250648024</v>
+        <v>8.793480230121924</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.000149196757576806</v>
+        <v>1.261307202777967</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.793480230121924</v>
+        <v>0.01153668322665717</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.261307202777967</v>
+        <v>2.878212324331356</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01153668322665717</v>
+        <v>0.9482732059255621</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.878212324331356</v>
+        <v>1.835725929616665</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9482732059255621</v>
+        <v>47</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.835725929616665</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1639422874476184</v>
       </c>
     </row>
@@ -7747,72 +7651,66 @@
         <v>1.930554529141396e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-1.426048055036955</v>
+        <v>6.705921128168243e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.8125232176797801</v>
+        <v>1.230691733797254e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.705921128168243e-07</v>
+        <v>0.03891312022250903</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.230691733797254e-06</v>
+        <v>0.1141002645757656</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.03891312022250903</v>
+        <v>0.01453301519004418</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1141002645757656</v>
+        <v>1.69179598770443</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01453301519004418</v>
+        <v>1.460407971680714</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.624230260847877</v>
+        <v>4.286152096979541</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.460407971680714</v>
+        <v>1.055390439168733e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.286152096979541</v>
+        <v>76284209.13961253</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.055390439168733e-15</v>
+        <v>1.454411315158478e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>76284209.13961253</v>
+        <v>6.141613070145287</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.454411315158478e-06</v>
+        <v>0.0001672968464250054</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>6.141613070145287</v>
+        <v>8.205704260274235</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001672968464250054</v>
+        <v>1.618336556558457</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.205704260274235</v>
+        <v>0.01126469599520316</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.618336556558457</v>
+        <v>2.925859785339798</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01126469599520316</v>
+        <v>0.9486696466493597</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.925859785339798</v>
+        <v>1.819638323698009</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9486696466493597</v>
+        <v>60</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.819638323698009</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1590309396428449</v>
       </c>
     </row>
@@ -7827,72 +7725,66 @@
         <v>1.824685680149964e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-1.493185765695008</v>
+        <v>6.644994580055575e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1.161770358182814</v>
+        <v>1.238060939963071e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.644994580055575e-07</v>
+        <v>0.03955614785466969</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.238060939963071e-06</v>
+        <v>0.1214592559067811</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.03955614785466969</v>
+        <v>0.01631688530662855</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1214592559067811</v>
+        <v>1.692597910806222</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01631688530662855</v>
+        <v>1.417642609634976</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.623791259976894</v>
+        <v>4.846056324557633</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.417642609634976</v>
+        <v>8.256032557549669e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.846056324557633</v>
+        <v>93499961.24347697</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>8.256032557549669e-16</v>
+        <v>1.174968321620063e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>93499961.24347697</v>
+        <v>7.217624079090431</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.174968321620063e-06</v>
+        <v>0.0001897799952428398</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>7.217624079090431</v>
+        <v>9.197074374082279</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001897799952428398</v>
+        <v>1.469645333999547</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.197074374082279</v>
+        <v>0.01605276427671686</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.469645333999547</v>
+        <v>2.774580660214957</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01605276427671686</v>
+        <v>0.9483873938049866</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.774580660214957</v>
+        <v>1.816792059897641</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9483873938049866</v>
+        <v>62</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.816792059897641</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1745012215338354</v>
       </c>
     </row>
@@ -7907,72 +7799,66 @@
         <v>1.713363940832606e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-1.544685427257895</v>
+        <v>6.559545305183799e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1.507583123547817</v>
+        <v>1.245119245379382e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6.559545305183799e-07</v>
+        <v>0.04022170406936307</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.245119245379382e-06</v>
+        <v>0.1300619080320624</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.04022170406936307</v>
+        <v>0.01853362452802724</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1300619080320624</v>
+        <v>1.716164908194271</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01853362452802724</v>
+        <v>1.441379915953821</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.65322771866274</v>
+        <v>5.459143191202502</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.441379915953821</v>
+        <v>4.837126865426436e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.459143191202502</v>
+        <v>159548525.9752932</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.837126865426436e-16</v>
+        <v>6.94603148813318e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>159548525.9752932</v>
+        <v>12.31326058177925</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>6.94603148813318e-07</v>
+        <v>0.000217989315541694</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>12.31326058177925</v>
+        <v>13.22062735218025</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.000217989315541694</v>
+        <v>0.9881489640573115</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>13.22062735218025</v>
+        <v>0.03810125981066485</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>0.9881489640573115</v>
+        <v>2.185462981908351</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.03810125981066485</v>
+        <v>0.9497615896316178</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.185462981908351</v>
+        <v>1.852722330048798</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9497615896316178</v>
+        <v>62</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.852722330048798</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2290928394474123</v>
       </c>
     </row>
@@ -7987,72 +7873,66 @@
         <v>1.59729616417245e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-1.57035966834447</v>
+        <v>6.441353828751767e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1.813481588980233</v>
+        <v>1.251833066824736e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.441353828751767e-07</v>
+        <v>0.04086381375994893</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.251833066824736e-06</v>
+        <v>0.1401061868254268</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04086381375994893</v>
+        <v>0.02129909207068992</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1401061868254268</v>
+        <v>1.853707906992166</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02129909207068992</v>
+        <v>1.601230426854341</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.820446446140369</v>
+        <v>4.059456347209539</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.601230426854341</v>
+        <v>4.460100538863193e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.059456347209539</v>
+        <v>166343172.148301</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.460100538863193e-16</v>
+        <v>7.141899158444126e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>166343172.148301</v>
+        <v>12.34112090202666</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>7.141899158444126e-07</v>
+        <v>0.0002439922393739747</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>12.34112090202666</v>
+        <v>12.01022576329236</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002439922393739747</v>
+        <v>1.258350515836663</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>12.01022576329236</v>
+        <v>0.03519478814844246</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.258350515836663</v>
+        <v>2.488473302904009</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.03519478814844246</v>
+        <v>0.9586249732472155</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.488473302904009</v>
+        <v>1.518575229558071</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9586249732472155</v>
+        <v>61</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.518575229558071</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2584520183094319</v>
       </c>
     </row>
@@ -8067,72 +7947,66 @@
         <v>1.477849486451435e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-1.555420259207971</v>
+        <v>6.27728490070292e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.0169654623499</v>
+        <v>1.258156210702532e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6.27728490070292e-07</v>
+        <v>0.04131732350373873</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.258156210702532e-06</v>
+        <v>0.1517507290950033</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.04131732350373873</v>
+        <v>0.02473430340294775</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1517507290950033</v>
+        <v>1.865567859722958</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02473430340294775</v>
+        <v>1.560783941861528</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.835236360945331</v>
+        <v>4.941613410466538</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.560783941861528</v>
+        <v>2.560406412854837e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.941613410466538</v>
+        <v>290331293.485727</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.560406412854837e-16</v>
+        <v>4.105348790679087e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>290331293.485727</v>
+        <v>21.5822442999382</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.105348790679087e-07</v>
+        <v>0.0002321456970843502</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>21.5822442999382</v>
+        <v>11.49027296167214</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0002321456970843502</v>
+        <v>1.447981327376212</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.49027296167214</v>
+        <v>0.0306493543317909</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.447981327376212</v>
+        <v>2.895631267100905</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0306493543317909</v>
+        <v>0.9603480039774021</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.895631267100905</v>
+        <v>1.515180626684843</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9603480039774021</v>
+        <v>66</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.515180626684843</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.4839998752898015</v>
       </c>
     </row>
@@ -8147,72 +8021,66 @@
         <v>1.357561800289627e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.479864776061493</v>
+        <v>6.050489159152512e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2.02064972795949</v>
+        <v>1.264010178362547e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>6.050489159152512e-07</v>
+        <v>0.04110072719321571</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.264010178362547e-06</v>
+        <v>0.1650090704693737</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.04110072719321571</v>
+        <v>0.02891467558480439</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1650090704693737</v>
+        <v>1.888719570003022</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02891467558480439</v>
+        <v>1.695973219222877</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.871580229110387</v>
+        <v>5.451045388981672</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.695973219222877</v>
+        <v>1.092541239401434e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.451045388981672</v>
+        <v>722276735.0897841</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.092541239401434e-16</v>
+        <v>1.647840996968392e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>722276735.0897841</v>
+        <v>56.996093656455</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.647840996968392e-07</v>
+        <v>0.0001657674390170422</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>56.996093656455</v>
+        <v>10.52433794084473</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001657674390170422</v>
+        <v>1.286791467507865</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.52433794084473</v>
+        <v>0.01836068154216568</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.286791467507865</v>
+        <v>3.270673188953478</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01836068154216568</v>
+        <v>0.9624141251644336</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.270673188953478</v>
+        <v>1.477537382238449</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9624141251644336</v>
+        <v>68</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.477537382238449</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.7856942683958714</v>
       </c>
     </row>
@@ -8227,72 +8095,66 @@
         <v>1.241066762567742e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.323056181740588</v>
+        <v>5.736214603076889e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.706019447594292</v>
+        <v>1.269261217026884e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.736214603076889e-07</v>
+        <v>0.03942258072241129</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.269261217026884e-06</v>
+        <v>0.1790982488909241</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.03942258072241129</v>
+        <v>0.0336243355393818</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1790982488909241</v>
+        <v>1.896969825482499</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0336243355393818</v>
+        <v>1.856153487480817</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.890564783318772</v>
+        <v>4.968981058446222</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.856153487480817</v>
+        <v>5.82829402492851e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.968981058446222</v>
+        <v>1362498624.261922</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>5.82829402492851e-17</v>
+        <v>8.802387514643488e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1362498624.261922</v>
+        <v>108.1965960511457</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>8.802387514643488e-08</v>
+        <v>0.0001592120801819025</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>108.1965960511457</v>
+        <v>9.232485185420721</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001592120801819025</v>
+        <v>1.327525631873398</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.232485185420721</v>
+        <v>0.01357104390568303</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.327525631873398</v>
+        <v>3.175968756290454</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01357104390568303</v>
+        <v>0.9639224822612662</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.175968756290454</v>
+        <v>1.391322183913449</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9639224822612662</v>
+        <v>68</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.391322183913449</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.6218885481354192</v>
       </c>
     </row>
@@ -8307,72 +8169,66 @@
         <v>1.135881485364259e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.083289170548559</v>
+        <v>5.310262656375828e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.025885451916244</v>
+        <v>1.27372585416738e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.310262656375828e-07</v>
+        <v>0.03527961678962792</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.27372585416738e-06</v>
+        <v>0.1915581743174851</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.03527961678962792</v>
+        <v>0.03792713271589663</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1915581743174851</v>
+        <v>1.900695759320322</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.03792713271589663</v>
+        <v>2.010529812263707</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.896387564313854</v>
+        <v>4.22531776103418</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.010529812263707</v>
+        <v>4.387880730824441e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.22531776103418</v>
+        <v>1806001327.40539</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.387880730824441e-17</v>
+        <v>6.638941808513587e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1806001327.40539</v>
+        <v>143.1169079345251</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.638941808513587e-08</v>
+        <v>0.0001441456797147776</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>143.1169079345251</v>
+        <v>8.605910536877508</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001441456797147776</v>
+        <v>1.344679968021358</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.605910536877508</v>
+        <v>0.01067567353507227</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.344679968021358</v>
+        <v>3.202765269392031</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01067567353507227</v>
+        <v>0.9648856698052032</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.202765269392031</v>
+        <v>1.367347367345443</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9648856698052032</v>
+        <v>68</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.367347367345443</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.4810620348546714</v>
       </c>
     </row>
@@ -8387,72 +8243,66 @@
         <v>1.05112697523651e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.805076108291698</v>
+        <v>4.780351516087046e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.1463967318549022</v>
+        <v>1.277213306671061e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4.780351516087046e-07</v>
+        <v>0.0280143288430787</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.277213306671061e-06</v>
+        <v>0.1986297601659925</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.0280143288430787</v>
+        <v>0.04021852365731828</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1986297601659925</v>
+        <v>1.910143828981975</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.04021852365731828</v>
+        <v>2.166923807755649</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.903701338124445</v>
+        <v>4.402876813626047</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.166923807755649</v>
+        <v>4.041108354660332e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.402876813626047</v>
+        <v>1934816709.128603</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.041108354660332e-17</v>
+        <v>6.214437669252351e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1934816709.128603</v>
+        <v>151.279525626797</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.214437669252351e-08</v>
+        <v>0.0001338983987001928</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>151.279525626797</v>
+        <v>8.795761225503737</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001338983987001928</v>
+        <v>1.220441714737448</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.795761225503737</v>
+        <v>0.01035910525505546</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.220441714737448</v>
+        <v>3.153604548259724</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01035910525505546</v>
+        <v>0.9633424231935759</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.153604548259724</v>
+        <v>1.381087636435364</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9633424231935759</v>
+        <v>80</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.381087636435364</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.4340473111466095</v>
       </c>
     </row>
@@ -8467,72 +8317,66 @@
         <v>9.941714688439684e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.576257074876545</v>
+        <v>4.194294359450746e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.5721509182727957</v>
+        <v>1.279577225808436e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4.194294359450746e-07</v>
+        <v>0.01797399340576637</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.279577225808436e-06</v>
+        <v>0.1976506425829869</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.01797399340576637</v>
+        <v>0.03936596677292961</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1976506425829869</v>
+        <v>1.913538561428896</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03936596677292961</v>
+        <v>2.180503953480576</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.908007567103143</v>
+        <v>4.475551379946056</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.180503953480576</v>
+        <v>3.910933849247192e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.475551379946056</v>
+        <v>1987234631.823594</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.910933849247192e-17</v>
+        <v>6.058149511092815e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1987234631.823594</v>
+        <v>154.4467465974948</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>6.058149511092815e-08</v>
+        <v>0.0001378809035030108</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>154.4467465974948</v>
+        <v>9.54462811978172</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001378809035030108</v>
+        <v>1.161031634452865</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.54462811978172</v>
+        <v>0.01256094009834404</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.161031634452865</v>
+        <v>2.973808251446395</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01256094009834404</v>
+        <v>0.9629203092804587</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.973808251446395</v>
+        <v>1.363995066564482</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9629203092804587</v>
+        <v>115</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.363995066564482</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.4331037718334451</v>
       </c>
     </row>
@@ -8547,72 +8391,66 @@
         <v>9.658331823118539e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.4571124357554787</v>
+        <v>3.650107097518268e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.9177081518160675</v>
+        <v>1.28080695639971e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3.650107097518268e-07</v>
+        <v>0.007241628178380487</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.28080695639971e-06</v>
+        <v>0.1912721185697533</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.007241628178380487</v>
+        <v>0.03661896772839926</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1912721185697533</v>
+        <v>1.910264464329788</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03661896772839926</v>
+        <v>2.166194886878683</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.912364770565836</v>
+        <v>4.580513634093711</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.166194886878683</v>
+        <v>3.733749731474538e-17</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.580513634093711</v>
+        <v>2067708572.978238</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.733749731474538e-17</v>
+        <v>5.807104950121974e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>2067708572.978238</v>
+        <v>159.6334358275012</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.807104950121974e-08</v>
+        <v>0.0001444501940149276</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>159.6334358275012</v>
+        <v>9.438607986659376</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001444501940149276</v>
+        <v>1.177193028726713</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.438607986659376</v>
+        <v>0.01286868076311624</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.177193028726713</v>
+        <v>2.99459181012144</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01286868076311624</v>
+        <v>0.9616221785277256</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.99459181012144</v>
+        <v>1.37740192788683</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9616221785277256</v>
+        <v>121</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.37740192788683</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.4279475683918531</v>
       </c>
     </row>
@@ -8627,72 +8465,66 @@
         <v>9.611990839789411e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.4384477262888948</v>
+        <v>3.338533157559943e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.9672225026683567</v>
+        <v>1.281015859903307e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3.338533157559943e-07</v>
+        <v>-0.00270191150823433</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.281015859903307e-06</v>
+        <v>0.1822528901769595</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.00270191150823433</v>
+        <v>0.03320869424062511</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1822528901769595</v>
+        <v>1.898697325306717</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.03320869424062511</v>
+        <v>2.217951388285952</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.903581629052002</v>
+        <v>4.675263198021996</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.217951388285952</v>
+        <v>3.583945814491169e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.675263198021996</v>
+        <v>2023222852.095057</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.583945814491169e-17</v>
+        <v>5.888936362782329e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>2023222852.095057</v>
+        <v>146.7063385728908</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.888936362782329e-08</v>
+        <v>0.000156480119465435</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>146.7063385728908</v>
+        <v>8.528682551942639</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.000156480119465435</v>
+        <v>1.381130630475792</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.528682551942639</v>
+        <v>0.01138211760144467</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.381130630475792</v>
+        <v>3.061609089816402</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01138211760144467</v>
+        <v>0.9624691524405592</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.061609089816402</v>
+        <v>1.415530495635675</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9624691524405592</v>
+        <v>121</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.415530495635675</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.404759992949241</v>
       </c>
     </row>
@@ -8707,72 +8539,66 @@
         <v>9.748775928799531e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.4785578108856121</v>
+        <v>3.442750786577472e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.8866531393517052</v>
+        <v>1.280298950685074e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>3.442750786577472e-07</v>
+        <v>-0.01198419862038541</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.280298950685074e-06</v>
+        <v>0.1700982647045396</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.01198419862038541</v>
+        <v>0.02906293417996765</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1700982647045396</v>
+        <v>1.895114528066264</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02906293417996765</v>
+        <v>2.265757297421117</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.905287114288963</v>
+        <v>4.717185850366642</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.265757297421117</v>
+        <v>3.520526278520811e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.717185850366642</v>
+        <v>2062065639.443166</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.520526278520811e-17</v>
+        <v>5.77153589894087e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>2062065639.443166</v>
+        <v>149.6968154546533</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>5.77153589894087e-08</v>
+        <v>0.0001552419305058725</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>149.6968154546533</v>
+        <v>8.407869925393946</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001552419305058725</v>
+        <v>1.410480243075799</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.407869925393946</v>
+        <v>0.01097440550402236</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.410480243075799</v>
+        <v>3.075594802643623</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01097440550402236</v>
+        <v>0.9631389007426423</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.075594802643623</v>
+        <v>1.403776081895422</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9631389007426423</v>
+        <v>121</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.403776081895422</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.3999022734285523</v>
       </c>
     </row>
@@ -8787,72 +8613,66 @@
         <v>1.002427403004201e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.5337286680118637</v>
+        <v>3.543597131854664e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.8076389802052288</v>
+        <v>1.2786777727222e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3.543597131854664e-07</v>
+        <v>-0.02057697674215512</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.2786777727222e-06</v>
+        <v>0.155223558534471</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.02057697674215512</v>
+        <v>0.02450559946533004</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.155223558534471</v>
+        <v>1.889163962203918</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02450559946533004</v>
+        <v>2.392484566215152</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.899070255311168</v>
+        <v>4.680851366422197</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.392484566215152</v>
+        <v>3.575393636140511e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.680851366422197</v>
+        <v>2170691345.054197</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.575393636140511e-17</v>
+        <v>5.51251768726823e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>2170691345.054197</v>
+        <v>168.4690054737903</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>5.51251768726823e-08</v>
+        <v>0.000143922348739179</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>168.4690054737903</v>
+        <v>9.198765082889182</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.000143922348739179</v>
+        <v>1.220066745606433</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.198765082889182</v>
+        <v>0.0121783175448206</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.220066745606433</v>
+        <v>3.004143948204522</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.0121783175448206</v>
+        <v>0.9638694647145251</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.004143948204522</v>
+        <v>1.345862143447251</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9638694647145251</v>
+        <v>88</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.345862143447251</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.4172911556306285</v>
       </c>
     </row>
@@ -8867,72 +8687,66 @@
         <v>1.039093874962912e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.573000664921351</v>
+        <v>3.640187355582215e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.7875785973377454</v>
+        <v>1.276183602649897e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3.640187355582215e-07</v>
+        <v>-0.02809115363848431</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.276183602649897e-06</v>
+        <v>0.1395901482742951</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.02809115363848431</v>
+        <v>0.02026332819534712</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1395901482742951</v>
+        <v>1.891954597813423</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02026332819534712</v>
+        <v>2.251376714409793</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.904855985466596</v>
+        <v>4.674161003871903</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.251376714409793</v>
+        <v>3.585636244002765e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.674161003871903</v>
+        <v>2162769311.062903</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.585636244002765e-17</v>
+        <v>5.539654147748542e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>2162769311.062903</v>
+        <v>167.7206844451404</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>5.539654147748542e-08</v>
+        <v>0.0001433111902382881</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>167.7206844451404</v>
+        <v>9.618371703629691</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001433111902382881</v>
+        <v>1.183017729996474</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.618371703629691</v>
+        <v>0.01325815878038751</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.183017729996474</v>
+        <v>2.879782825520847</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01325815878038751</v>
+        <v>0.9628965875415544</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.879782825520847</v>
+        <v>1.357622289192955</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9628965875415544</v>
+        <v>79</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.357622289192955</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.4480918143067765</v>
       </c>
     </row>
@@ -8947,72 +8761,66 @@
         <v>1.080515820008809e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.5839779142761661</v>
+        <v>3.73071702057369e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.8225384004590444</v>
+        <v>1.272821076749858e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3.73071702057369e-07</v>
+        <v>-0.03530086759811257</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.272821076749858e-06</v>
+        <v>0.1215202126763631</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.03530086759811257</v>
+        <v>0.0160002626658915</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1215202126763631</v>
+        <v>1.897875131796292</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.0160002626658915</v>
+        <v>2.350296574114178</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.917652485739289</v>
+        <v>4.670084200906624</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.350296574114178</v>
+        <v>3.591899220123876e-17</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.670084200906624</v>
+        <v>2166457726.299182</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.591899220123876e-17</v>
+        <v>5.53635359340042e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>2166457726.299182</v>
+        <v>168.5871936050334</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>5.53635359340042e-08</v>
+        <v>0.0001409035723837762</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>168.5871936050334</v>
+        <v>9.067576877763329</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001409035723837762</v>
+        <v>1.183052143548464</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.067576877763329</v>
+        <v>0.01158522564096087</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.183052143548464</v>
+        <v>3.013451552419271</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01158522564096087</v>
+        <v>0.9630844203419237</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.013451552419271</v>
+        <v>1.360789882575009</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9630844203419237</v>
+        <v>66</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.360789882575009</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.4937842953095509</v>
       </c>
     </row>
@@ -9027,72 +8835,66 @@
         <v>1.12241201169798e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.5669402149263153</v>
+        <v>3.814726598181122e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.8834421863346273</v>
+        <v>1.268516003507681e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3.814726598181122e-07</v>
+        <v>-0.04277087707040188</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.268516003507681e-06</v>
+        <v>0.09843172683524272</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.04277087707040188</v>
+        <v>0.01150383208843439</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.09843172683524272</v>
+        <v>1.890704942850553</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01150383208843439</v>
+        <v>2.278294944838065</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.916385918911321</v>
+        <v>4.605181022251582</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.278294944838065</v>
+        <v>3.693857625467678e-17</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.605181022251582</v>
+        <v>2091850343.126034</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.693857625467678e-17</v>
+        <v>5.719975488133145e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>2091850343.126034</v>
+        <v>161.6372203971831</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>5.719975488133145e-08</v>
+        <v>0.0001468343372024564</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>161.6372203971831</v>
+        <v>8.32797026756726</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001468343372024564</v>
+        <v>1.379876214572413</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.32797026756726</v>
+        <v>0.01018370849225943</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.379876214572413</v>
+        <v>3.177002175761643</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01018370849225943</v>
+        <v>0.9621898607914563</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.177002175761643</v>
+        <v>1.326794867503217</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9621898607914563</v>
+        <v>64</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.326794867503217</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.6100815467469267</v>
       </c>
     </row>
@@ -9107,72 +8909,66 @@
         <v>1.159981019066906e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.5343453864145006</v>
+        <v>3.892935481126888e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.938472719480965</v>
+        <v>1.263224081403619e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>3.892935481126888e-07</v>
+        <v>-0.04945648931062794</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.263224081403619e-06</v>
+        <v>0.07412644109663549</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.04945648931062794</v>
+        <v>0.007933371897349602</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.07412644109663549</v>
+        <v>1.888034341394458</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.007933371897349602</v>
+        <v>2.0542730507866</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.914608225015259</v>
+        <v>4.699421573177176</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.0542730507866</v>
+        <v>3.547192457167116e-17</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.699421573177176</v>
+        <v>2151029335.932958</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.547192457167116e-17</v>
+        <v>5.564811001729271e-08</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>2151029335.932958</v>
+        <v>164.1260127804686</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.564811001729271e-08</v>
+        <v>0.0001656913742912075</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>164.1260127804686</v>
+        <v>8.916333495901879</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001656913742912075</v>
+        <v>1.545362145922325</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.916333495901879</v>
+        <v>0.01317263044627982</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.545362145922325</v>
+        <v>3.286002066814033</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01317263044627982</v>
+        <v>0.962376667039886</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.286002066814033</v>
+        <v>1.346421082449891</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.962376667039886</v>
+        <v>64</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.346421082449891</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.9352348074136833</v>
       </c>
     </row>
@@ -9187,72 +8983,66 @@
         <v>1.190925798373702e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.5027340595713432</v>
+        <v>3.965379368506319e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.9808827856664455</v>
+        <v>1.257162785183918e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>3.965379368506319e-07</v>
+        <v>-0.05302681766958017</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.257162785183918e-06</v>
+        <v>0.06199993074443671</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05302681766958017</v>
+        <v>0.006654831591586496</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.06199993074443671</v>
+        <v>1.896661351097491</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.006654831591586496</v>
+        <v>1.972392028082543</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.918101424326814</v>
+        <v>5.073380917237735</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.972392028082543</v>
+        <v>2.948247609834991e-17</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>5.073380917237735</v>
+        <v>2509127433.040446</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.948247609834991e-17</v>
+        <v>4.78741513597221e-08</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>2509127433.040446</v>
+        <v>185.6134284330417</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>4.78741513597221e-08</v>
+        <v>0.0001684515903458225</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>185.6134284330417</v>
+        <v>12.19052679156281</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001684515903458225</v>
+        <v>1.088916238049116</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>12.19052679156281</v>
+        <v>0.0250334128647437</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.088916238049116</v>
+        <v>3.360454186148297</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.0250334128647437</v>
+        <v>0.962628513229919</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.360454186148297</v>
+        <v>1.368151570139641</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.962628513229919</v>
+        <v>64</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.368151570139641</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>1.7272913243788</v>
       </c>
     </row>
@@ -9267,72 +9057,66 @@
         <v>1.217230004223714e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.4750927976909643</v>
+        <v>4.032640644961554e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.020138799755377</v>
+        <v>1.250712246124335e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4.032640644961554e-07</v>
+        <v>-0.05368473594203671</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.250712246124335e-06</v>
+        <v>0.05885987284973405</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05368473594203671</v>
+        <v>0.006346710323113592</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.05885987284973405</v>
+        <v>1.912711171104069</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.006346710323113592</v>
+        <v>2.52073699685737</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.949349025626979</v>
+        <v>4.280769066606001</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.52073699685737</v>
+        <v>2.525403309904868e-17</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.280769066606001</v>
+        <v>2912051822.976003</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.525403309904868e-17</v>
+        <v>4.123282997694615e-08</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>2912051822.976003</v>
+        <v>214.1553578120992</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>4.123282997694615e-08</v>
+        <v>0.0001849928287433473</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>214.1553578120992</v>
+        <v>13.51365780662507</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001849928287433473</v>
+        <v>1.038286023720748</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>13.51365780662507</v>
+        <v>0.0337831956458525</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.038286023720748</v>
+        <v>3.478234996546569</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.0337831956458525</v>
+        <v>0.9622724158772211</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.478234996546569</v>
+        <v>1.139088471720328</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9622724158772211</v>
+        <v>59</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.139088471720328</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>2.389880825528768</v>
       </c>
     </row>
@@ -9347,72 +9131,66 @@
         <v>1.241878354425471e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.4461754536659588</v>
+        <v>4.097632490700181e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.059458695474538</v>
+        <v>1.244166070017273e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.097632490700181e-07</v>
+        <v>-0.05263717318471755</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.244166070017273e-06</v>
+        <v>0.05764461346919545</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05263717318471755</v>
+        <v>0.00609342089290207</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.05764461346919545</v>
+        <v>1.913600103404063</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.00609342089290207</v>
+        <v>2.13539255266633</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.947865618664608</v>
+        <v>4.801405090078267</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.13539255266633</v>
+        <v>2.007417231068215e-17</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.801405090078267</v>
+        <v>3475239949.124513</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.007417231068215e-17</v>
+        <v>3.469222867475055e-08</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>3475239949.124513</v>
+        <v>242.4416547864587</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>3.469222867475055e-08</v>
+        <v>0.0001918372367803594</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>242.4416547864587</v>
+        <v>12.24770961425879</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001918372367803594</v>
+        <v>1.270779132300145</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>12.24770961425879</v>
+        <v>0.02877681150954727</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.270779132300145</v>
+        <v>3.851172133931043</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.02877681150954727</v>
+        <v>0.9616255157994475</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.851172133931043</v>
+        <v>1.098464943205455</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9616255157994475</v>
+        <v>83</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.098464943205455</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>3.027320618406691</v>
       </c>
     </row>
@@ -9427,72 +9205,66 @@
         <v>1.266413466214977e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.4133270759711678</v>
+        <v>4.161355344324235e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.098067675590768</v>
+        <v>1.237654836675039e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.161355344324235e-07</v>
+        <v>-0.05118676494322424</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.237654836675039e-06</v>
+        <v>0.05643675899542418</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05118676494322424</v>
+        <v>0.005804972613845257</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.05643675899542418</v>
+        <v>1.910959307474464</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.005804972613845257</v>
+        <v>2.229374703661187</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.945911453800676</v>
+        <v>5.182470021082706</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.229374703661187</v>
+        <v>9.897603880062542e-18</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5.182470021082706</v>
+        <v>6716270283.609767</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>9.897603880062542e-18</v>
+        <v>1.792333956436239e-08</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>6716270283.609767</v>
+        <v>446.4639517080651</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.792333956436239e-08</v>
+        <v>0.0001713452428939914</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>446.4639517080651</v>
+        <v>12.80063761782931</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001713452428939914</v>
+        <v>1.17024884106843</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>12.80063761782931</v>
+        <v>0.02807600153662811</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.17024884106843</v>
+        <v>4.055045615232913</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02807600153662811</v>
+        <v>0.9602616407533164</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>4.055045615232913</v>
+        <v>1.065405189992745</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9602616407533164</v>
+        <v>83</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.065405189992745</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>3.553196417164565</v>
       </c>
     </row>
@@ -9507,72 +9279,66 @@
         <v>1.291030901345286e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.3768138968254652</v>
+        <v>4.221527627474023e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.135184271256753</v>
+        <v>1.231203966118997e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>4.221527627474023e-07</v>
+        <v>-0.04973144256086546</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1.231203966118997e-06</v>
+        <v>0.05526500404671854</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.04973144256086546</v>
+        <v>0.005527292046480461</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.05526500404671854</v>
+        <v>1.913373842348168</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.005527292046480461</v>
+        <v>2.591078771297007</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.952576677417654</v>
+        <v>4.670377990815284</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>2.591078771297007</v>
+        <v>6.211944494521542e-18</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.670377990815284</v>
+        <v>10848916083.73917</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>6.211944494521542e-18</v>
+        <v>1.111981915383997e-08</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>10848916083.73917</v>
+        <v>731.1395320145838</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.111981915383997e-08</v>
+        <v>0.0001400628584314134</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>731.1395320145838</v>
+        <v>13.11033670537898</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001400628584314134</v>
+        <v>1.042806544848164</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>13.11033670537898</v>
+        <v>0.02407413415953419</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.042806544848164</v>
+        <v>4.055251089517977</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.02407413415953419</v>
+        <v>0.9592380466165606</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>4.055251089517977</v>
+        <v>1.015457286417272</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9592380466165606</v>
+        <v>83</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.015457286417272</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>3.383902954686635</v>
       </c>
     </row>
@@ -9587,72 +9353,66 @@
         <v>1.315518144013252e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.3373905930354388</v>
+        <v>4.27762752091827e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.170255113799032</v>
+        <v>1.224810875262436e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>4.27762752091827e-07</v>
+        <v>-0.04840606587852667</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1.224810875262436e-06</v>
+        <v>0.05419110775594296</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.04840606587852667</v>
+        <v>0.005279772654037768</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.05419110775594296</v>
+        <v>1.900400907071503</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.005279772654037768</v>
+        <v>2.659060155277028</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.9438164336657</v>
+        <v>4.892470035360218</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>2.659060155277028</v>
+        <v>4.742481614889568e-18</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.892470035360218</v>
+        <v>14357274250.42475</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>4.742481614889568e-18</v>
+        <v>8.382728385146616e-09</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>14357274250.42475</v>
+        <v>977.5740138576522</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>8.382728385146616e-09</v>
+        <v>0.0001206113267855784</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>977.5740138576522</v>
+        <v>11.24386778110061</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001206113267855784</v>
+        <v>1.103045522374505</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>11.24386778110061</v>
+        <v>0.01524823424298532</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.103045522374505</v>
+        <v>3.997745403606035</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01524823424298532</v>
+        <v>0.9611584123995329</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.997745403606035</v>
+        <v>1.030611210768019</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9611584123995329</v>
+        <v>73</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.030611210768019</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>2.780988011834168</v>
       </c>
     </row>
@@ -9667,72 +9427,66 @@
         <v>1.339546847523564e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.2957749674391832</v>
+        <v>4.32910823243884e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.202628073449043</v>
+        <v>1.218460698030548e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>4.32910823243884e-07</v>
+        <v>-0.0473124001302957</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1.218460698030548e-06</v>
+        <v>0.05322425228251197</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.0473124001302957</v>
+        <v>0.005071378914044045</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.05322425228251197</v>
+        <v>1.901621526413985</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.005071378914044045</v>
+        <v>2.778733966950153</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.943912162320329</v>
+        <v>5.284970653211783</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>2.778733966950153</v>
+        <v>4.064216593703992e-18</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>5.284970653211783</v>
+        <v>16981443711.18723</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>4.064216593703992e-18</v>
+        <v>7.091654978523239e-09</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>16981443711.18723</v>
+        <v>1171.995824620993</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>7.091654978523239e-09</v>
+        <v>0.0001118487443098796</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>1171.995824620993</v>
+        <v>8.844258534324169</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001118487443098796</v>
+        <v>1.281167447584136</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>8.844258534324169</v>
+        <v>0.008748910452884218</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.281167447584136</v>
+        <v>4.095972630525253</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.008748910452884218</v>
+        <v>0.9613273133533781</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>4.095972630525253</v>
+        <v>1.025262119892353</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9613273133533781</v>
+        <v>38</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.025262119892353</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>2.363357704548209</v>
       </c>
     </row>
@@ -9747,72 +9501,66 @@
         <v>1.362545408658728e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.2525398845580482</v>
+        <v>4.373890160734555e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.231527578532773</v>
+        <v>1.2121200395704e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>4.373890160734555e-07</v>
+        <v>-0.0466283302746584</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1.2121200395704e-06</v>
+        <v>0.05227458826080058</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.0466283302746584</v>
+        <v>0.004907053169448039</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.05227458826080058</v>
+        <v>1.908736800500839</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.004907053169448039</v>
+        <v>2.993822129339897</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.939281497754518</v>
+        <v>5.615391594075911</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>2.993822129339897</v>
+        <v>4.064375553487773e-18</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>5.615391594075911</v>
+        <v>17104935236.03246</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>4.064375553487773e-18</v>
+        <v>7.06134575410636e-09</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>17104935236.03246</v>
+        <v>1189.150160511237</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>7.06134575410636e-09</v>
+        <v>0.0001250138287529498</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>1189.150160511237</v>
+        <v>8.078895116002963</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001250138287529498</v>
+        <v>1.782608154652282</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>8.078895116002963</v>
+        <v>0.008159470869524175</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.782608154652282</v>
+        <v>4.132894681545193</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.008159470869524175</v>
+        <v>0.9621058652591019</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>4.132894681545193</v>
+        <v>1.055551659060509</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9621058652591019</v>
+        <v>32</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.055551659060509</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>2.172770914777222</v>
       </c>
     </row>
@@ -9827,72 +9575,66 @@
         <v>1.383562975231736e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.2082199632116678</v>
+        <v>4.410051688920621e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.255860902570743</v>
+        <v>1.205726536759655e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4.410051688920621e-07</v>
+        <v>-0.04660685192139454</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1.205726536759655e-06</v>
+        <v>0.05090058906785953</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.04660685192139454</v>
+        <v>0.004763204625539714</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.05090058906785953</v>
+        <v>1.910191926163777</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.004763204625539714</v>
+        <v>2.523359827866342</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.937534012209653</v>
+        <v>6.24183801350048</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>2.523359827866342</v>
+        <v>6.080480430536418e-18</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>6.24183801350048</v>
+        <v>11384707896.70939</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>6.080480430536418e-18</v>
+        <v>1.062956318133562e-08</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>11384707896.70939</v>
+        <v>788.1006386298268</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>1.062956318133562e-08</v>
+        <v>0.0001539763401973741</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>788.1006386298268</v>
+        <v>9.950804665461245</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001539763401973741</v>
+        <v>1.602040983317346</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>9.950804665461245</v>
+        <v>0.01524650831899997</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.602040983317346</v>
+        <v>3.984385825024727</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01524650831899997</v>
+        <v>0.9612902901739473</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.984385825024727</v>
+        <v>1.066302134110601</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9612902901739473</v>
+        <v>32</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.066302134110601</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>2.181179865974064</v>
       </c>
     </row>
@@ -9907,72 +9649,66 @@
         <v>1.401041607054955e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.1637080223154985</v>
+        <v>4.433581906853111e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.274568272300338</v>
+        <v>1.199183408935174e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>4.433581906853111e-07</v>
+        <v>-0.04750896917318759</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1.199183408935174e-06</v>
+        <v>0.04795729738344046</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.04750896917318759</v>
+        <v>0.004556562852290744</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.04795729738344046</v>
+        <v>1.910339259966901</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.004556562852290744</v>
+        <v>2.406534133471531</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.935029791651006</v>
+        <v>5.5531631240432</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>2.406534133471531</v>
+        <v>1.101590300055374e-17</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>5.5531631240432</v>
+        <v>6232149738.226876</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1.101590300055374e-17</v>
+        <v>1.94146633985354e-08</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>6232149738.226876</v>
+        <v>427.8542615737917</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1.94146633985354e-08</v>
+        <v>0.000166882958338258</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>427.8542615737917</v>
+        <v>11.89255366143822</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.000166882958338258</v>
+        <v>1.293026624702095</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>11.89255366143822</v>
+        <v>0.02360272950881009</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.293026624702095</v>
+        <v>3.76432623726442</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.02360272950881009</v>
+        <v>0.9597250281376302</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.76432623726442</v>
+        <v>1.096717484490772</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9597250281376302</v>
+        <v>32</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.096717484490772</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>2.037786574150752</v>
       </c>
     </row>
@@ -10349,7 +10085,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.686982080945713</v>
+        <v>1.688766879014468</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.778520844993352</v>
@@ -10438,7 +10174,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.70089022285642</v>
+        <v>1.703958318422103</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.865662712645887</v>
@@ -10527,7 +10263,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.729809973032592</v>
+        <v>1.72977218371521</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.954803230280705</v>
@@ -10616,7 +10352,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.745788883572453</v>
+        <v>1.746570775023815</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.504625926915833</v>
@@ -10705,7 +10441,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.79816135602032</v>
+        <v>1.788269285690575</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.876395229315522</v>
@@ -10794,7 +10530,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.820586266997679</v>
+        <v>1.815184266581211</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.624834900083349</v>
@@ -10883,7 +10619,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.820968491581627</v>
+        <v>1.8063738074938</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.076822177395615</v>
@@ -10972,7 +10708,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.822335659265947</v>
+        <v>1.807063822141561</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.827484240957316</v>
@@ -11061,7 +10797,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.82101390340999</v>
+        <v>1.80364685965889</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.726774076174682</v>
@@ -11150,7 +10886,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.834566722169512</v>
+        <v>1.816136959470608</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.732740959512184</v>
@@ -11239,7 +10975,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.843340780242487</v>
+        <v>1.826967408970749</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.851873456463244</v>
@@ -11328,7 +11064,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.843890691658067</v>
+        <v>1.832446755618409</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.815868218348593</v>
@@ -11417,7 +11153,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.841057919916538</v>
+        <v>1.825054771935966</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.019494700872557</v>
@@ -11506,7 +11242,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.838460152113971</v>
+        <v>1.823619182570247</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.827286655628324</v>
@@ -11595,7 +11331,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.840821473575265</v>
+        <v>1.817676234584775</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.050554558942845</v>
@@ -11684,7 +11420,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.778533022748333</v>
+        <v>1.770038320439884</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.80780162700463</v>
@@ -11773,7 +11509,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.775894055554165</v>
+        <v>1.765998454150004</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.812806402952214</v>
@@ -11862,7 +11598,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.730852259414453</v>
+        <v>1.729453868111956</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.047682482846029</v>
@@ -11951,7 +11687,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.723381631763347</v>
+        <v>1.725171121124013</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.937056915971633</v>
@@ -12040,7 +11776,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.720373747016608</v>
+        <v>1.723524854308584</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.910234483806763</v>
@@ -12129,7 +11865,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.715896125716623</v>
+        <v>1.716461677429534</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.952151535518729</v>
@@ -12218,7 +11954,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.717437413263525</v>
+        <v>1.722447478897232</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.907025399570625</v>
@@ -12307,7 +12043,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.718017235103255</v>
+        <v>1.722543807573924</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.909244852326623</v>
@@ -12396,7 +12132,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.716583488878315</v>
+        <v>1.723982303179259</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.905139144238867</v>
@@ -12485,7 +12221,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.736088936329478</v>
+        <v>1.739843096071608</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.719757159326782</v>
@@ -12574,7 +12310,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.734423316273925</v>
+        <v>1.738537199207516</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.948698136849102</v>
@@ -12663,7 +12399,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.732936528493949</v>
+        <v>1.739321872610304</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.754934659032354</v>
@@ -12752,7 +12488,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.735484410424268</v>
+        <v>1.74025044396734</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.952221552971453</v>
@@ -12841,7 +12577,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.736749528205739</v>
+        <v>1.742264928585492</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.906356851615403</v>
@@ -12930,7 +12666,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.75495900315435</v>
+        <v>1.757973707580546</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.633931556090415</v>
@@ -13019,7 +12755,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.794724234160396</v>
+        <v>1.79295000645658</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.56768233556453</v>
@@ -13108,7 +12844,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.804800528010134</v>
+        <v>1.80403833107472</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.666298221776664</v>
@@ -13197,7 +12933,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.815657313914062</v>
+        <v>1.820300208992314</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.655906567538763</v>
@@ -13286,7 +13022,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.816851773530397</v>
+        <v>1.820829122489215</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.70862334308445</v>
@@ -13375,7 +13111,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.818845396004752</v>
+        <v>1.823570702770186</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.70679724190828</v>
@@ -13464,7 +13200,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.817949865384997</v>
+        <v>1.825528926063183</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.820946581703855</v>
@@ -13553,7 +13289,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.81830470635783</v>
+        <v>1.820982842472764</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.722744226594768</v>
@@ -13642,7 +13378,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.783081955386794</v>
+        <v>1.786980794756879</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.728077079209888</v>
@@ -13731,7 +13467,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.775241804619372</v>
+        <v>1.780122364572729</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.765646137008839</v>
@@ -13820,7 +13556,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.778043490688723</v>
+        <v>1.778005609579413</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.855590854731864</v>
@@ -13909,7 +13645,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.781697647295236</v>
+        <v>1.780577045675737</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.747552065405451</v>
@@ -13998,7 +13734,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.779815142415241</v>
+        <v>1.772182243679206</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.804194731244724</v>
@@ -14087,7 +13823,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.780136426492905</v>
+        <v>1.768601410987685</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.773427635949022</v>
@@ -14176,7 +13912,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.778998557243537</v>
+        <v>1.766831687613568</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.707598176789411</v>
@@ -14265,7 +14001,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.783709865577412</v>
+        <v>1.774176454202495</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.879228656395607</v>
@@ -14354,7 +14090,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.770794370588712</v>
+        <v>1.766238865015961</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.932502879627499</v>
@@ -14443,7 +14179,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.760904282669107</v>
+        <v>1.752669483948331</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.503423414738883</v>
@@ -14532,7 +14268,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.688351037758812</v>
+        <v>1.69302550944576</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.269701664403214</v>
@@ -14621,7 +14357,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.684170196214143</v>
+        <v>1.688567877634715</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.262487622946106</v>
@@ -14710,7 +14446,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.680839171187622</v>
+        <v>1.685620445712066</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.245882728172686</v>
@@ -14799,7 +14535,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.662898385002003</v>
+        <v>1.663276241982535</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.265213779109224</v>
@@ -14888,7 +14624,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.654169645100731</v>
+        <v>1.663928166408251</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.272366770395434</v>
@@ -14977,7 +14713,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.674713522898419</v>
+        <v>1.686678136538841</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.275134885449264</v>
@@ -15066,7 +14802,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.686214150537166</v>
+        <v>1.696443506763478</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.28922417215246</v>
@@ -15155,7 +14891,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.683618487772739</v>
+        <v>1.695524444307027</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.301007722094654</v>
@@ -15244,7 +14980,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.613167312851473</v>
+        <v>1.628724093595447</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.254960478232282</v>
@@ -15333,7 +15069,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.595640241149321</v>
+        <v>1.612251608963774</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.300992314806602</v>
@@ -15422,7 +15158,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.566034465178539</v>
+        <v>1.591612184379689</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.276610485364174</v>
@@ -15511,7 +15247,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.561032365795357</v>
+        <v>1.58929864711522</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.249979786229551</v>
@@ -15600,7 +15336,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.555648959420806</v>
+        <v>1.580295519177409</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.314352598112719</v>
@@ -15689,7 +15425,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.528911912804058</v>
+        <v>1.553609031947389</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.260273239411693</v>
@@ -15778,7 +15514,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.543216857506919</v>
+        <v>1.567802427557819</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.251839290490636</v>
@@ -15867,7 +15603,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.609814924853636</v>
+        <v>1.626553409079887</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.523270450841259</v>
@@ -15956,7 +15692,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.616837217280354</v>
+        <v>1.633581370537071</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.444832993703682</v>
@@ -16045,7 +15781,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.619647561184849</v>
+        <v>1.631846122340469</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.50684097698637</v>
@@ -16134,7 +15870,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.644129375769424</v>
+        <v>1.653329521543514</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.40896450265265</v>
@@ -16223,7 +15959,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.652574647918385</v>
+        <v>1.660884251217017</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.494512924867146</v>
@@ -16312,7 +16048,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.660293141229038</v>
+        <v>1.667545971519871</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.446040146250406</v>
@@ -16401,7 +16137,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.658234015830542</v>
+        <v>1.665123086914895</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.446329527728548</v>
@@ -16490,7 +16226,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.657329711205038</v>
+        <v>1.661989062189963</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.500751410087513</v>
@@ -16579,7 +16315,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.740280268272784</v>
+        <v>1.733119221936363</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.646983307902143</v>
@@ -16668,7 +16404,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.755613857307033</v>
+        <v>1.747203447443488</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.253553380006609</v>
@@ -16757,7 +16493,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.796306914665176</v>
+        <v>1.777936301194619</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.5632636149625</v>
@@ -16846,7 +16582,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.787650499743711</v>
+        <v>1.77143458297375</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.648693988137436</v>
@@ -16935,7 +16671,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.792663849928673</v>
+        <v>1.773178103955707</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.373157223654227</v>
@@ -17024,7 +16760,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.842461921061352</v>
+        <v>1.812121814094723</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.892367750027066</v>
@@ -17113,7 +16849,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.766598508648946</v>
+        <v>1.747761526672523</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.634727435173835</v>
@@ -17202,7 +16938,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.702440269740841</v>
+        <v>1.700813778970377</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.569008100509882</v>
@@ -17291,7 +17027,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.696638732926567</v>
+        <v>1.694385479887739</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.644051678795555</v>
@@ -17380,7 +17116,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.688752583590133</v>
+        <v>1.694213840091513</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.620373508027038</v>
@@ -17469,7 +17205,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.680816514950638</v>
+        <v>1.686304352519798</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.694946719393251</v>
@@ -17558,7 +17294,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.663654918886165</v>
+        <v>1.670331145481706</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.573079697895581</v>
@@ -17647,7 +17383,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.656787076390257</v>
+        <v>1.66165959690021</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.439352841036621</v>
@@ -17736,7 +17472,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.644834214215309</v>
+        <v>1.656159927157932</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.582976876736243</v>
@@ -17825,7 +17561,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.651112300390462</v>
+        <v>1.663988349506851</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.476810157199953</v>
@@ -17914,7 +17650,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.622388217030183</v>
+        <v>1.639313831569255</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.54152138798851</v>
@@ -18003,7 +17739,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.616393313942437</v>
+        <v>1.639153656755999</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.641822014369605</v>
@@ -18289,7 +18025,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.653079951669093</v>
+        <v>1.643515110109143</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.688634658543555</v>
@@ -18378,7 +18114,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.652354505478983</v>
+        <v>1.64760465701675</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.609430780664569</v>
@@ -18467,7 +18203,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.690507740684779</v>
+        <v>1.680399371430427</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.801067242615427</v>
@@ -18556,7 +18292,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.690654549928187</v>
+        <v>1.680910316369426</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.7988929282328</v>
@@ -18645,7 +18381,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.686706362009202</v>
+        <v>1.673420503609876</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.901725425421321</v>
@@ -18734,7 +18470,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.701800567921275</v>
+        <v>1.686789792530757</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.205936354546459</v>
@@ -18823,7 +18559,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.699978735148893</v>
+        <v>1.681921001007505</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.888839324773521</v>
@@ -18912,7 +18648,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.713519645489199</v>
+        <v>1.689987979142064</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.047021671695522</v>
@@ -19001,7 +18737,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.711915757057082</v>
+        <v>1.681531520259043</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.190963143312172</v>
@@ -19090,7 +18826,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.724130513079966</v>
+        <v>1.692806634084366</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.363513365979728</v>
@@ -19179,7 +18915,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.719924154226132</v>
+        <v>1.689641454767977</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.250781620879635</v>
@@ -19268,7 +19004,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.697386103295142</v>
+        <v>1.665013583814093</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.166914067996582</v>
@@ -19357,7 +19093,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.692230466968588</v>
+        <v>1.667549009857417</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.049517244195263</v>
@@ -19446,7 +19182,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.681375248054163</v>
+        <v>1.656411152682569</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.235793577852968</v>
@@ -19535,7 +19271,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.6637428931195</v>
+        <v>1.637683947103561</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.367908891899831</v>
@@ -19624,7 +19360,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.656196398591941</v>
+        <v>1.628210986773806</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.252424733772031</v>
@@ -19713,7 +19449,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.656269493142604</v>
+        <v>1.622271676313162</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.269398800997985</v>
@@ -19802,7 +19538,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.641038359704401</v>
+        <v>1.605264930318892</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.209260036922276</v>
@@ -19891,7 +19627,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.63393989696497</v>
+        <v>1.599080119080799</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.157680506864367</v>
@@ -19980,7 +19716,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.628610646872511</v>
+        <v>1.593894039248692</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.328997727249605</v>
@@ -20069,7 +19805,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.627199363215154</v>
+        <v>1.590953654083438</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.262999585764667</v>
@@ -20158,7 +19894,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.623023976907149</v>
+        <v>1.590134460979135</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.179640408283955</v>
@@ -20247,7 +19983,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.615102233454455</v>
+        <v>1.586077103335377</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.405524282391462</v>
@@ -20336,7 +20072,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.618614943625667</v>
+        <v>1.591233147264169</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.350227684368122</v>
@@ -20425,7 +20161,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.608804601966176</v>
+        <v>1.57952614211519</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.138861534027874</v>
@@ -20514,7 +20250,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.616248544951882</v>
+        <v>1.586306498977099</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.067359931559017</v>
@@ -20603,7 +20339,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.624023125035505</v>
+        <v>1.589652966549742</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.999545554433119</v>
@@ -20692,7 +20428,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.622380763095198</v>
+        <v>1.58955829134239</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.982180942840117</v>
@@ -20781,7 +20517,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.63064816291429</v>
+        <v>1.597401258277361</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.20270427455762</v>
@@ -20870,7 +20606,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.6436017506227</v>
+        <v>1.611035004292575</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.878354431771951</v>
@@ -20959,7 +20695,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.653361644521709</v>
+        <v>1.61989054344218</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.30931923569976</v>
@@ -21048,7 +20784,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.646463646102776</v>
+        <v>1.617155722364442</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.075179204510803</v>
@@ -21137,7 +20873,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.645850000878895</v>
+        <v>1.623638568176575</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.137428667029464</v>
@@ -21226,7 +20962,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.653478058900682</v>
+        <v>1.627977124873568</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.968819932467333</v>
@@ -21315,7 +21051,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.653859310753201</v>
+        <v>1.633245696713447</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.201207086630766</v>
@@ -21404,7 +21140,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.660662651518575</v>
+        <v>1.642370061457297</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.985859254044855</v>
@@ -21493,7 +21229,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.668545145414817</v>
+        <v>1.643299185243821</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.175320262134936</v>
@@ -21582,7 +21318,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.662059239357554</v>
+        <v>1.639508023171581</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.069778901873172</v>
@@ -21671,7 +21407,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.65806762114908</v>
+        <v>1.639555968900771</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.314108840441168</v>
@@ -21760,7 +21496,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.674123966621748</v>
+        <v>1.655878880445882</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.237233673379848</v>
@@ -21849,7 +21585,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.669725951085256</v>
+        <v>1.654247093790481</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.024581600689905</v>
@@ -21938,7 +21674,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.673986582266933</v>
+        <v>1.664894757211359</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.362538219613061</v>
@@ -22027,7 +21763,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.67762318614044</v>
+        <v>1.667435104635659</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.160093534995323</v>
@@ -22116,7 +21852,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.675430180157132</v>
+        <v>1.665371245128654</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.357476849256302</v>
@@ -22205,7 +21941,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.678941466572687</v>
+        <v>1.671844812323128</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.408142930082849</v>
@@ -22294,7 +22030,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.652170765743461</v>
+        <v>1.649067212911676</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.222852114807716</v>
@@ -22383,7 +22119,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.656461916325824</v>
+        <v>1.653580015395032</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.930550639400426</v>
@@ -22472,7 +22208,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.56781286943496</v>
+        <v>1.577965142633516</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.119119119251942</v>
@@ -22561,7 +22297,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.563926878979625</v>
+        <v>1.580226442556346</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.113837155637474</v>
@@ -22650,7 +22386,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.572340324347449</v>
+        <v>1.585795188604721</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.119871734584502</v>
@@ -22739,7 +22475,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.561993667095159</v>
+        <v>1.57750524169504</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.108432179421295</v>
@@ -22828,7 +22564,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.558128345859542</v>
+        <v>1.576045063867848</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.079008417253861</v>
@@ -22917,7 +22653,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.561512722094266</v>
+        <v>1.577818133375691</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.128388212822193</v>
@@ -23006,7 +22742,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.566321680491787</v>
+        <v>1.583606977965837</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.116011640385273</v>
@@ -23095,7 +22831,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.566362999042118</v>
+        <v>1.582669842524396</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.099332967384743</v>
@@ -23184,7 +22920,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.533084308975068</v>
+        <v>1.550039079239954</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.11212426483402</v>
@@ -23273,7 +23009,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.521091051422111</v>
+        <v>1.536504935854727</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.123312955362343</v>
@@ -23362,7 +23098,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.510052202920054</v>
+        <v>1.528740833294225</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.113935590745361</v>
@@ -23451,7 +23187,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.500623358922476</v>
+        <v>1.519044917627161</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.115318092239121</v>
@@ -23540,7 +23276,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.492528356561764</v>
+        <v>1.506720010752255</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.114583734290508</v>
@@ -23629,7 +23365,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.495233429031554</v>
+        <v>1.511526662102025</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.101499077265241</v>
@@ -23718,7 +23454,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.502396509578948</v>
+        <v>1.517852271543541</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.090068526942296</v>
@@ -23807,7 +23543,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.592369632385902</v>
+        <v>1.594277595482157</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.472712485799803</v>
@@ -23896,7 +23632,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.601632109634381</v>
+        <v>1.603798722153829</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.76148003535655</v>
@@ -23985,7 +23721,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.603652427583331</v>
+        <v>1.603059377753226</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.794140891355623</v>
@@ -24074,7 +23810,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.614461968088639</v>
+        <v>1.611493830123717</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.737946673679331</v>
@@ -24163,7 +23899,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.603926437551154</v>
+        <v>1.600659511913382</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.573659377373179</v>
@@ -24252,7 +23988,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.595960314034647</v>
+        <v>1.594077415832781</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.604638511859716</v>
@@ -24341,7 +24077,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.588319630408267</v>
+        <v>1.58622348707647</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.707932975202211</v>
@@ -24430,7 +24166,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.590762236850943</v>
+        <v>1.591067476054913</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.64174336087826</v>
@@ -24519,7 +24255,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.63610411653929</v>
+        <v>1.627704267572278</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.586675435528026</v>
@@ -24608,7 +24344,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.652943348617207</v>
+        <v>1.640723583856343</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.768866616642832</v>
@@ -24697,7 +24433,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.66925453750415</v>
+        <v>1.653699811978502</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.310198612270284</v>
@@ -24786,7 +24522,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.663049669867377</v>
+        <v>1.653303960700111</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.461303145746404</v>
@@ -24875,7 +24611,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.675901597220719</v>
+        <v>1.66776813053141</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.52996274498984</v>
@@ -24964,7 +24700,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.674214225210713</v>
+        <v>1.665404542200642</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.332368186660615</v>
@@ -25053,7 +24789,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.639274241835971</v>
+        <v>1.637878136295613</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.877978969935636</v>
@@ -25142,7 +24878,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.616498319338598</v>
+        <v>1.626390212156578</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.638816445028764</v>
@@ -25231,7 +24967,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.616480788331977</v>
+        <v>1.624815399472147</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.943757216924818</v>
@@ -25320,7 +25056,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.601262048402278</v>
+        <v>1.612269699095795</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.962701187428783</v>
@@ -25409,7 +25145,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.606015795369885</v>
+        <v>1.615449130064794</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.019039273455012</v>
@@ -25498,7 +25234,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.61057202865464</v>
+        <v>1.618962385010262</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.558923485695675</v>
@@ -25587,7 +25323,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.622254857152757</v>
+        <v>1.630413000118851</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.68901529258403</v>
@@ -25676,7 +25412,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.628763580648642</v>
+        <v>1.643335882262587</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.977597424469465</v>
@@ -25765,7 +25501,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.63891922512538</v>
+        <v>1.656817606377758</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.1922633587272</v>
@@ -25854,7 +25590,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.637814120010495</v>
+        <v>1.656467325128194</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.049983910748022</v>
@@ -25943,7 +25679,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.630522271837835</v>
+        <v>1.654895742215754</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.061137880049998</v>
@@ -26229,7 +25965,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.647500558977393</v>
+        <v>1.641260741456749</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.2514262403723</v>
@@ -26318,7 +26054,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.641837194818701</v>
+        <v>1.637978772007723</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.070350684642515</v>
@@ -26407,7 +26143,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.668987004258217</v>
+        <v>1.659783374303659</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.430754187371285</v>
@@ -26496,7 +26232,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.679608189723094</v>
+        <v>1.670548100682381</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.938830216511355</v>
@@ -26585,7 +26321,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.694034562498439</v>
+        <v>1.676740877326385</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.314860968012321</v>
@@ -26674,7 +26410,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.687210236718813</v>
+        <v>1.672009956299936</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.453919919884513</v>
@@ -26763,7 +26499,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.683114627131602</v>
+        <v>1.660031349554699</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.121216602905074</v>
@@ -26852,7 +26588,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.687593557847213</v>
+        <v>1.659685530468455</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.596847982859417</v>
@@ -26941,7 +26677,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.687261897691583</v>
+        <v>1.656976355399389</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.82743078813157</v>
@@ -27030,7 +26766,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.683743108679634</v>
+        <v>1.655771187980738</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.22222192383035</v>
@@ -27119,7 +26855,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.675323529113104</v>
+        <v>1.652823134930985</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.530230185698277</v>
@@ -27208,7 +26944,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.684739054822178</v>
+        <v>1.662516085733297</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.554442995235658</v>
@@ -27297,7 +27033,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.680778042169292</v>
+        <v>1.658239510552066</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.394770893531575</v>
@@ -27386,7 +27122,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.685426952444325</v>
+        <v>1.664699742864144</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.120862267397425</v>
@@ -27475,7 +27211,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.694761166820873</v>
+        <v>1.668981221199299</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.309344743021946</v>
@@ -27564,7 +27300,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.689506532289695</v>
+        <v>1.666137248028878</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.584134659968655</v>
@@ -27653,7 +27389,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.697371881913984</v>
+        <v>1.666635941632751</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.064043726073882</v>
@@ -27742,7 +27478,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.692211461106622</v>
+        <v>1.664064991635693</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.270708262436201</v>
@@ -27831,7 +27567,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.693578945617317</v>
+        <v>1.669363368203717</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.536121214405331</v>
@@ -27920,7 +27656,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.688959138813765</v>
+        <v>1.666014702199357</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.387711354350424</v>
@@ -28009,7 +27745,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.684361942708093</v>
+        <v>1.667589503686084</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.439828032808627</v>
@@ -28098,7 +27834,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.676033343370851</v>
+        <v>1.663042661428208</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.343651727054271</v>
@@ -28187,7 +27923,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.675173629838683</v>
+        <v>1.662872011529416</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.619260993465725</v>
@@ -28276,7 +28012,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.672489670164707</v>
+        <v>1.660070514670854</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.651674739814952</v>
@@ -28365,7 +28101,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.67325217587134</v>
+        <v>1.658115528644721</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.395209222248152</v>
@@ -28454,7 +28190,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.668396597180458</v>
+        <v>1.650827389379839</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.72018656893106</v>
@@ -28543,7 +28279,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.666493833247312</v>
+        <v>1.649688177589628</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.596790329774519</v>
@@ -28632,7 +28368,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.665737197172635</v>
+        <v>1.655923421599822</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.566723120165064</v>
@@ -28721,7 +28457,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.664708029280267</v>
+        <v>1.655120770902926</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.796234827681282</v>
@@ -28810,7 +28546,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.658355765553829</v>
+        <v>1.648737440569227</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.275104870209191</v>
@@ -28899,7 +28635,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.663840067788548</v>
+        <v>1.655686984301512</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.622368393928896</v>
@@ -28988,7 +28724,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.666523078635303</v>
+        <v>1.6684158083326</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.387819611715911</v>
@@ -29077,7 +28813,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.671553624010248</v>
+        <v>1.669887541055351</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.942036498173165</v>
@@ -29166,7 +28902,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.670217292337448</v>
+        <v>1.671047038548229</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.412698611572731</v>
@@ -29255,7 +28991,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.686174029294902</v>
+        <v>1.686875809184488</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.652312659416388</v>
@@ -29344,7 +29080,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.692269797710915</v>
+        <v>1.690305427050729</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.046522809457362</v>
@@ -29433,7 +29169,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.693424486563315</v>
+        <v>1.691847003235203</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.757712250114604</v>
@@ -29522,7 +29258,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.683181354935196</v>
+        <v>1.680713266597336</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.813666168816027</v>
@@ -29611,7 +29347,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.676079816079691</v>
+        <v>1.678276259118654</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.864341482721381</v>
@@ -29700,7 +29436,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.685322162832869</v>
+        <v>1.691283638690533</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.443094115963552</v>
@@ -29789,7 +29525,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.688767321306361</v>
+        <v>1.694993105421445</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.745949242848351</v>
@@ -29878,7 +29614,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.685501612053468</v>
+        <v>1.686195441771903</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.162766741741971</v>
@@ -29967,7 +29703,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.680891068828887</v>
+        <v>1.676502933788987</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.550389273419623</v>
@@ -30056,7 +29792,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.690035148659805</v>
+        <v>1.684689951397353</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.570987515637822</v>
@@ -30145,7 +29881,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.694869585841869</v>
+        <v>1.689892339227542</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.369492916002938</v>
@@ -30234,7 +29970,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.687986077612712</v>
+        <v>1.681777183349453</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.413855161153344</v>
@@ -30323,7 +30059,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.669176061925923</v>
+        <v>1.659691508545034</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.346876888979935</v>
@@ -30412,7 +30148,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.597469325254316</v>
+        <v>1.604140207599084</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.294477307695144</v>
@@ -30501,7 +30237,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.595133924640743</v>
+        <v>1.605698549111415</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.30412597466312</v>
@@ -30590,7 +30326,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.591141889190192</v>
+        <v>1.602049530097789</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.299472282335226</v>
@@ -30679,7 +30415,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.576902344297699</v>
+        <v>1.58444809770167</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.27094584069358</v>
@@ -30768,7 +30504,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.57731466099942</v>
+        <v>1.585788556121514</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.250797226691857</v>
@@ -30857,7 +30593,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.576527776557729</v>
+        <v>1.587694695553081</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.290437946538346</v>
@@ -30946,7 +30682,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.582556812694525</v>
+        <v>1.590252177140658</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.249790052965011</v>
@@ -31035,7 +30771,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.57526597574462</v>
+        <v>1.582603098668496</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.297476911933225</v>
@@ -31124,7 +30860,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.550395003634109</v>
+        <v>1.559701288817186</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.259491336131703</v>
@@ -31213,7 +30949,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.546484463707647</v>
+        <v>1.552388881919046</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.285245983211409</v>
@@ -31302,7 +31038,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.537622984421783</v>
+        <v>1.545701095837301</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.232971144563558</v>
@@ -31391,7 +31127,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.520692403884214</v>
+        <v>1.530920457328403</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.26861836831259</v>
@@ -31480,7 +31216,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.518622023374824</v>
+        <v>1.524286213631177</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.233175442307339</v>
@@ -31569,7 +31305,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.516512976772468</v>
+        <v>1.516889761404005</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.159351063898264</v>
@@ -31658,7 +31394,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.524071481745205</v>
+        <v>1.523666551779367</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.206857130991185</v>
@@ -31747,7 +31483,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.587542998423423</v>
+        <v>1.576489867953393</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.856991466328028</v>
@@ -31836,7 +31572,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.587831859081137</v>
+        <v>1.57046135015979</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.827686153198367</v>
@@ -31925,7 +31661,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.582323881119073</v>
+        <v>1.562629916620785</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.774405131389858</v>
@@ -32014,7 +31750,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.601672973434166</v>
+        <v>1.583317917472637</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.791213704223596</v>
@@ -32103,7 +31839,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.597884117390049</v>
+        <v>1.579493221180045</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.80583175474663</v>
@@ -32192,7 +31928,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.604893974581268</v>
+        <v>1.581690352651019</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.731673540980441</v>
@@ -32281,7 +32017,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.606960132646702</v>
+        <v>1.581705210932448</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.759931616460264</v>
@@ -32370,7 +32106,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.603592164216626</v>
+        <v>1.580775107669627</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.694770724186923</v>
@@ -32459,7 +32195,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.637754591879332</v>
+        <v>1.60721888602097</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.113356647421571</v>
@@ -32548,7 +32284,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.638449636068656</v>
+        <v>1.606470968413399</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.194727394208983</v>
@@ -32637,7 +32373,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.651504275347655</v>
+        <v>1.617186911572524</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.959463073202137</v>
@@ -32726,7 +32462,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.653330438385217</v>
+        <v>1.615759058913625</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.573617586745669</v>
@@ -32815,7 +32551,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.65612792732863</v>
+        <v>1.622650433020588</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.273577165386536</v>
@@ -32904,7 +32640,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.674548880181792</v>
+        <v>1.641053677743456</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.374295275484386</v>
@@ -32993,7 +32729,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.669015790527499</v>
+        <v>1.639087047169845</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.380975393922638</v>
@@ -33082,7 +32818,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.666728300402586</v>
+        <v>1.635873146390059</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.351054986791039</v>
@@ -33171,7 +32907,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.659304859168799</v>
+        <v>1.62953121653337</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.878756866189268</v>
@@ -33260,7 +32996,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.660498771224286</v>
+        <v>1.631583832280608</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.68560920819103</v>
@@ -33349,7 +33085,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.646008491947715</v>
+        <v>1.615036468434187</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.587105524699029</v>
@@ -33438,7 +33174,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.631756278903272</v>
+        <v>1.603837653687801</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.931204833281054</v>
@@ -33527,7 +33263,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.623677888380697</v>
+        <v>1.599555591134973</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.338910872904524</v>
@@ -33616,7 +33352,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.623304118928001</v>
+        <v>1.600787358006685</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.015673706725382</v>
@@ -33705,7 +33441,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.625615273892453</v>
+        <v>1.600597871456798</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.251194820421992</v>
@@ -33794,7 +33530,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.614919389898303</v>
+        <v>1.594753215793131</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.214989240421146</v>
@@ -33883,7 +33619,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.623388480587238</v>
+        <v>1.605481927174789</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.729029811228612</v>
@@ -34169,7 +33905,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.648498061234371</v>
+        <v>1.646644494479208</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.7554859373122</v>
@@ -34258,7 +33994,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.672088774572902</v>
+        <v>1.66195497674581</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.708604725055971</v>
@@ -34347,7 +34083,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.720333090232558</v>
+        <v>1.70277112858358</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.642412279311227</v>
@@ -34436,7 +34172,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.725134746933601</v>
+        <v>1.70559223129868</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.914817766117949</v>
@@ -34525,7 +34261,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.73602568164898</v>
+        <v>1.705894129495699</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.034629429028833</v>
@@ -34614,7 +34350,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.749748866803147</v>
+        <v>1.718328747846729</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.91798347877458</v>
@@ -34703,7 +34439,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.741943439984713</v>
+        <v>1.711082187152083</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.555729256189473</v>
@@ -34792,7 +34528,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.74607941124189</v>
+        <v>1.71285488353393</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.601840994258831</v>
@@ -34881,7 +34617,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.745148978223804</v>
+        <v>1.707936002992817</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.923647502047035</v>
@@ -34970,7 +34706,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.742980518078449</v>
+        <v>1.701171093663554</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.030796378384424</v>
@@ -35059,7 +34795,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.725918835199769</v>
+        <v>1.692498826338332</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.772264225101778</v>
@@ -35148,7 +34884,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.719479179315377</v>
+        <v>1.683918347124231</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.562059518945604</v>
@@ -35237,7 +34973,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.710792437234038</v>
+        <v>1.670417735953092</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.454590881913322</v>
@@ -35326,7 +35062,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.718364717779928</v>
+        <v>1.675675515648175</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.429880707646278</v>
@@ -35415,7 +35151,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.723678299034909</v>
+        <v>1.673543341491467</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.935322014950004</v>
@@ -35504,7 +35240,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.709301669252087</v>
+        <v>1.655307122573126</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.987691416812095</v>
@@ -35593,7 +35329,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.706572464541045</v>
+        <v>1.650322329667546</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.82912616995109</v>
@@ -35682,7 +35418,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.70501787044458</v>
+        <v>1.649832388092023</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.885964009493867</v>
@@ -35771,7 +35507,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.710115225576103</v>
+        <v>1.648980509066922</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.681282061930548</v>
@@ -35860,7 +35596,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.708397714684285</v>
+        <v>1.647789945981635</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.029743762802137</v>
@@ -35949,7 +35685,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.707307246720248</v>
+        <v>1.643044643737293</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.904235634024676</v>
@@ -36038,7 +35774,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.713111386710182</v>
+        <v>1.648587341521029</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.497301878930703</v>
@@ -36127,7 +35863,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.716292328151076</v>
+        <v>1.648320189643559</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.087470257217475</v>
@@ -36216,7 +35952,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.721533733153823</v>
+        <v>1.653776181875313</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.589953827331677</v>
@@ -36305,7 +36041,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.720594463107785</v>
+        <v>1.651875892548717</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.862134945767012</v>
@@ -36394,7 +36130,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.729787643971787</v>
+        <v>1.657887760275914</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.801327095345314</v>
@@ -36483,7 +36219,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.731565155518124</v>
+        <v>1.663057945290465</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.935683932451448</v>
@@ -36572,7 +36308,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.733318125352971</v>
+        <v>1.665909570386981</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.228344400524774</v>
@@ -36661,7 +36397,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.723688172256569</v>
+        <v>1.659583734983805</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.643574589729023</v>
@@ -36750,7 +36486,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.717589016023855</v>
+        <v>1.656736165620155</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.811596276156626</v>
@@ -36839,7 +36575,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.726958674481765</v>
+        <v>1.670308394294705</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.011320564972086</v>
@@ -36928,7 +36664,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.727494558358972</v>
+        <v>1.676545737356354</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.683463177208169</v>
@@ -37017,7 +36753,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.729623525858494</v>
+        <v>1.675619418126074</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.549452021729436</v>
@@ -37106,7 +36842,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.727487105479885</v>
+        <v>1.673486836088946</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.965182197961915</v>
@@ -37195,7 +36931,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.726199160713501</v>
+        <v>1.67790749726521</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.126182870478274</v>
@@ -37284,7 +37020,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.728072873676632</v>
+        <v>1.681673332804839</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.80630990547632</v>
@@ -37373,7 +37109,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.727950543986934</v>
+        <v>1.682790678407755</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.56867442272925</v>
@@ -37462,7 +37198,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.714399735154683</v>
+        <v>1.674339409553009</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.724092846909067</v>
@@ -37551,7 +37287,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.707222894394063</v>
+        <v>1.672064530324376</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.65065611525589</v>
@@ -37640,7 +37376,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.71875768878678</v>
+        <v>1.685875731246895</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.081002737442131</v>
@@ -37729,7 +37465,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.720499385340561</v>
+        <v>1.684988081004052</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.298603644005079</v>
@@ -37818,7 +37554,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.725046225007585</v>
+        <v>1.682284677443091</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.135859884534353</v>
@@ -37907,7 +37643,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.725905926670812</v>
+        <v>1.684719782026593</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.243961502368021</v>
@@ -37996,7 +37732,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.725957387392687</v>
+        <v>1.68297512296048</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.897345332507074</v>
@@ -38085,7 +37821,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.728393677243168</v>
+        <v>1.684435927703787</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.542135960133585</v>
@@ -38174,7 +37910,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.718841363520852</v>
+        <v>1.673589937260675</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.514467423503196</v>
@@ -38263,7 +37999,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.720270961031095</v>
+        <v>1.674935294115077</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.259270109729595</v>
@@ -38352,7 +38088,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.648073207418333</v>
+        <v>1.621762693819517</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.293494343863152</v>
@@ -38441,7 +38177,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.646942847738484</v>
+        <v>1.630947726078321</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.363513668355096</v>
@@ -38530,7 +38266,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.65275351588155</v>
+        <v>1.62921701402314</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.333817808745477</v>
@@ -38619,7 +38355,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.642048622338964</v>
+        <v>1.623517154373497</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.247683593435416</v>
@@ -38708,7 +38444,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.638968147099187</v>
+        <v>1.618811617836666</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.267737386011377</v>
@@ -38797,7 +38533,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.636446617048605</v>
+        <v>1.616091375123973</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.339010430308287</v>
@@ -38886,7 +38622,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.641848881566012</v>
+        <v>1.620490467356684</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.327229173216614</v>
@@ -38975,7 +38711,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.637220065167099</v>
+        <v>1.615997383883365</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.357835459305729</v>
@@ -39064,7 +38800,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.613574059814866</v>
+        <v>1.603249834159361</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.323941916657587</v>
@@ -39153,7 +38889,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.606845602427628</v>
+        <v>1.602777053093147</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.344324751107712</v>
@@ -39242,7 +38978,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.597591238306162</v>
+        <v>1.592518906687288</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.365913468949564</v>
@@ -39331,7 +39067,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.513830839808694</v>
+        <v>1.517053570512275</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.973657907847459</v>
@@ -39420,7 +39156,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.509860719407156</v>
+        <v>1.512803616218996</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.947939927117442</v>
@@ -39509,7 +39245,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.513351133029066</v>
+        <v>1.519423778707938</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.988145510168214</v>
@@ -39598,7 +39334,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.508335531654875</v>
+        <v>1.512223618439338</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.944477689146305</v>
@@ -39687,7 +39423,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.5635276150261</v>
+        <v>1.557493103332261</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.951495772931906</v>
@@ -39776,7 +39512,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.563604868108143</v>
+        <v>1.553450452288586</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.937613979892191</v>
@@ -39865,7 +39601,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.563049912895656</v>
+        <v>1.550856175211037</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.970926643562253</v>
@@ -39954,7 +39690,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.563517150611529</v>
+        <v>1.548456842413211</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.975893426879229</v>
@@ -40043,7 +39779,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.566455915086714</v>
+        <v>1.551716529153778</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.933087649768779</v>
@@ -40132,7 +39868,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.570397167580339</v>
+        <v>1.555549023195382</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.938423556765667</v>
@@ -40221,7 +39957,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.573886427994554</v>
+        <v>1.552955377896412</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.920228208547169</v>
@@ -40310,7 +40046,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.576522568823388</v>
+        <v>1.551701084941457</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.962139306975354</v>
@@ -40399,7 +40135,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.590923587292406</v>
+        <v>1.558958703496213</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.899411992755051</v>
@@ -40488,7 +40224,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.592116890501982</v>
+        <v>1.553292473188226</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.917970327492783</v>
@@ -40577,7 +40313,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.599548809639526</v>
+        <v>1.562083195680574</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.951607205358868</v>
@@ -40666,7 +40402,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.706730321635426</v>
+        <v>1.650861683535984</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.237006201656347</v>
@@ -40755,7 +40491,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.706834761769211</v>
+        <v>1.648149058129442</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.751260403952813</v>
@@ -40844,7 +40580,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.697791866406002</v>
+        <v>1.637743482656803</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.141826844630009</v>
@@ -40933,7 +40669,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.692232415174117</v>
+        <v>1.636333740458803</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.393707484194195</v>
@@ -41022,7 +40758,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.686377862901971</v>
+        <v>1.633097257476213</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.921853997468093</v>
@@ -41111,7 +40847,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.684257095701718</v>
+        <v>1.640749620710646</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.029375725778721</v>
@@ -41200,7 +40936,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.680924138959388</v>
+        <v>1.642769811621605</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.292531834711075</v>
@@ -41289,7 +41025,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.681517319591884</v>
+        <v>1.643973867976937</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.082286176748818</v>
@@ -41378,7 +41114,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.673190434598883</v>
+        <v>1.633633482646871</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.296235737696199</v>
@@ -41467,7 +41203,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.671319103193101</v>
+        <v>1.634895749496515</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.024092245365216</v>
@@ -41556,7 +41292,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.659373748057776</v>
+        <v>1.627959230738103</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.234395204462009</v>
@@ -41645,7 +41381,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.651414447716883</v>
+        <v>1.629143517451594</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.269323083343473</v>
@@ -41734,7 +41470,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.646547469242447</v>
+        <v>1.62953214027132</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.328129430452788</v>
@@ -41823,7 +41559,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.658316706856171</v>
+        <v>1.644762642397689</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.861488755782372</v>
@@ -42109,7 +41845,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.52656785304027</v>
+        <v>1.521033471171306</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.497651120254802</v>
@@ -42198,7 +41934,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.537029957462486</v>
+        <v>1.536990260583709</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.582175774668754</v>
@@ -42287,7 +42023,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.572746340028782</v>
+        <v>1.567894882496113</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.9994807443722</v>
@@ -42376,7 +42112,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.570625710239123</v>
+        <v>1.561599879126181</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.988942904387931</v>
@@ -42465,7 +42201,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.573149027469305</v>
+        <v>1.559204830318893</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.043623003363328</v>
@@ -42554,7 +42290,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.583911314888556</v>
+        <v>1.565661381436374</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.056889321120456</v>
@@ -42643,7 +42379,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.592610220386679</v>
+        <v>1.572153432536661</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.815711343755594</v>
@@ -42732,7 +42468,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.589870511623356</v>
+        <v>1.561989308380968</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.812410415329812</v>
@@ -42821,7 +42557,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.588536950768747</v>
+        <v>1.56314119694481</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.886652107992946</v>
@@ -42910,7 +42646,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.583658215352437</v>
+        <v>1.563265849132037</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.045246865882443</v>
@@ -42999,7 +42735,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.567596712306518</v>
+        <v>1.551067253646946</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.878130600400171</v>
@@ -43088,7 +42824,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.563169841254172</v>
+        <v>1.551577935127743</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.954946159598227</v>
@@ -43177,7 +42913,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.560773454255411</v>
+        <v>1.542472848226982</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.188938498805758</v>
@@ -43266,7 +43002,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.56068744201402</v>
+        <v>1.543524816484168</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.181704801527978</v>
@@ -43355,7 +43091,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.55260861959672</v>
+        <v>1.531190251006498</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.915677168068559</v>
@@ -43444,7 +43180,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.540798451484453</v>
+        <v>1.516480330476776</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.987103558440585</v>
@@ -43533,7 +43269,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.535899053400029</v>
+        <v>1.511132846992039</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.80012095696284</v>
@@ -43622,7 +43358,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.544428566605073</v>
+        <v>1.517794307437263</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.980031762115709</v>
@@ -43711,7 +43447,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.548921613112685</v>
+        <v>1.524672618360369</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.202558514304321</v>
@@ -43800,7 +43536,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554385510395909</v>
+        <v>1.528644943607424</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.939832914670925</v>
@@ -43889,7 +43625,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.567528292123516</v>
+        <v>1.537136688771422</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.198955241778545</v>
@@ -43978,7 +43714,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.562626926574717</v>
+        <v>1.535245221532652</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.859345688533166</v>
@@ -44067,7 +43803,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.561769124976125</v>
+        <v>1.53813674433941</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.160878722496003</v>
@@ -44156,7 +43892,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.563257264558002</v>
+        <v>1.542663548753192</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.906786445884562</v>
@@ -44245,7 +43981,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.562730347680423</v>
+        <v>1.538820606661745</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.821739518495508</v>
@@ -44334,7 +44070,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.575205800758179</v>
+        <v>1.545894445992296</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.170238614966336</v>
@@ -44423,7 +44159,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.577822020593157</v>
+        <v>1.545016354675018</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.216315895626602</v>
@@ -44512,7 +44248,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.577887535324122</v>
+        <v>1.550340814243625</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.045074661404394</v>
@@ -44601,7 +44337,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.588496222543257</v>
+        <v>1.558974914899305</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.051872860209563</v>
@@ -44690,7 +44426,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.604657438191871</v>
+        <v>1.578152936294055</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.253880900683113</v>
@@ -44779,7 +44515,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.6221275328933</v>
+        <v>1.592676563525237</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.302281485116389</v>
@@ -44868,7 +44604,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.625284771547378</v>
+        <v>1.594822166953655</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.871604587666233</v>
@@ -44957,7 +44693,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.610251427278831</v>
+        <v>1.584918044584097</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.25879837642022</v>
@@ -45046,7 +44782,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.599263044016934</v>
+        <v>1.575667196394419</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.010742448026179</v>
@@ -45135,7 +44871,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.60965014364885</v>
+        <v>1.585190505898556</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.330706774171648</v>
@@ -45224,7 +44960,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.610035831404608</v>
+        <v>1.581615789273599</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.851031640860633</v>
@@ -45313,7 +45049,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.616766516305004</v>
+        <v>1.583504751843764</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.976049054547592</v>
@@ -45402,7 +45138,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.599640079448362</v>
+        <v>1.561771582249657</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.235363075654733</v>
@@ -45491,7 +45227,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.601807526757822</v>
+        <v>1.559657718710336</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.081609515114777</v>
@@ -45580,7 +45316,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.616374245882682</v>
+        <v>1.573999085959301</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.052055959568924</v>
@@ -45669,7 +45405,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.619126924663083</v>
+        <v>1.576924423938639</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.104556875870728</v>
@@ -45758,7 +45494,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.620962074798718</v>
+        <v>1.580944360284201</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.438492452961928</v>
@@ -45847,7 +45583,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.639295888594661</v>
+        <v>1.596484312658635</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.239716771111138</v>
@@ -45936,7 +45672,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.635073089121559</v>
+        <v>1.593332296424114</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.472695435684336</v>
@@ -46025,7 +45761,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.621697505319806</v>
+        <v>1.588620529322133</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.96048441351431</v>
@@ -46114,7 +45850,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.618491197520952</v>
+        <v>1.58687291233171</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.211892777940349</v>
@@ -46203,7 +45939,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.615930396810745</v>
+        <v>1.584649373454911</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.931207078945826</v>
@@ -46292,7 +46028,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.561872742200467</v>
+        <v>1.539214210789706</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.282587208235966</v>
@@ -46381,7 +46117,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.560806826162821</v>
+        <v>1.537397927599637</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.205233148293138</v>
@@ -46470,7 +46206,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.551219334320134</v>
+        <v>1.526484474152678</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.262828712904658</v>
@@ -46559,7 +46295,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.55180545689465</v>
+        <v>1.534555615405551</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.21846856820751</v>
@@ -46648,7 +46384,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.547540609757154</v>
+        <v>1.5349771526204</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.092878855664476</v>
@@ -46737,7 +46473,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.55939044146124</v>
+        <v>1.54463669669684</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.290918661486185</v>
@@ -46826,7 +46562,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.557179077879595</v>
+        <v>1.547606795882652</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.234231031850137</v>
@@ -46915,7 +46651,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.552537989202285</v>
+        <v>1.545277363651876</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.252150772814352</v>
@@ -47004,7 +46740,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.528832305314103</v>
+        <v>1.528720015152718</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.241532809617687</v>
@@ -47093,7 +46829,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.528585182505005</v>
+        <v>1.528177010450111</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.291428270659567</v>
@@ -47182,7 +46918,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.522908793874631</v>
+        <v>1.521488351195005</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.319319765230903</v>
@@ -47271,7 +47007,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.524611851080697</v>
+        <v>1.523626606283308</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.30722132945494</v>
@@ -47360,7 +47096,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.529660891414367</v>
+        <v>1.523554904088186</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.250195162900717</v>
@@ -47449,7 +47185,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.528942082527344</v>
+        <v>1.524208866953143</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.312686396062645</v>
@@ -47538,7 +47274,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.543095552791266</v>
+        <v>1.535036307521098</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.180978969500092</v>
@@ -47627,7 +47363,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.601338804476037</v>
+        <v>1.583960704297984</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.955120449711843</v>
@@ -47716,7 +47452,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.608321936495887</v>
+        <v>1.598443198846214</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.984531803803393</v>
@@ -47805,7 +47541,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.620824545801099</v>
+        <v>1.61331334847066</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.019553878699514</v>
@@ -47894,7 +47630,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.620116576003633</v>
+        <v>1.607885080052781</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.712556380397491</v>
@@ -47983,7 +47719,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.612911225423246</v>
+        <v>1.603480505779766</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.836858650836322</v>
@@ -48072,7 +47808,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.614948178565693</v>
+        <v>1.606159110734924</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.90414548498162</v>
@@ -48161,7 +47897,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.605400547701043</v>
+        <v>1.595832154507981</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.917492839735523</v>
@@ -48250,7 +47986,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.605018362515274</v>
+        <v>1.597020361183542</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.636542093984152</v>
@@ -48339,7 +48075,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.632134457248602</v>
+        <v>1.61847858111927</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.085360690716238</v>
@@ -48428,7 +48164,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.633688744051331</v>
+        <v>1.61724638127277</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.135509669812823</v>
@@ -48517,7 +48253,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.632854684763859</v>
+        <v>1.616352408234976</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.24666933648378</v>
@@ -48606,7 +48342,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.625931192782606</v>
+        <v>1.611859895046894</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.169201032833126</v>
@@ -48695,7 +48431,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.624922142430956</v>
+        <v>1.61055777621481</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.320283503130204</v>
@@ -48784,7 +48520,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.612479102712904</v>
+        <v>1.601074645692186</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.252154401443808</v>
@@ -48873,7 +48609,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.602701953460059</v>
+        <v>1.592562262163239</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.219353501139636</v>
@@ -48962,7 +48698,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.603372638139961</v>
+        <v>1.595510679362838</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.939073912361325</v>
@@ -49051,7 +48787,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.59541948571168</v>
+        <v>1.586323957548645</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.218165312137184</v>
@@ -49140,7 +48876,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.577579238356102</v>
+        <v>1.567781430706653</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.102581821102171</v>
@@ -49229,7 +48965,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.586111112981302</v>
+        <v>1.577866719484394</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.392697404481138</v>
@@ -49318,7 +49054,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.583360782537035</v>
+        <v>1.577831932479852</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.350723998588995</v>
@@ -49407,7 +49143,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.59680024366997</v>
+        <v>1.588780126054586</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.279347127837295</v>
@@ -49496,7 +49232,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.610157962926489</v>
+        <v>1.601100865240044</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.142521835211639</v>
@@ -49585,7 +49321,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.630811278626237</v>
+        <v>1.622432252592148</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.250412988599431</v>
@@ -49674,7 +49410,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.624560824991769</v>
+        <v>1.617214961272613</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.579029306499983</v>
@@ -49763,7 +49499,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.626797794331301</v>
+        <v>1.612827322646696</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.932828256334347</v>
@@ -50049,7 +49785,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.616538651600187</v>
+        <v>1.64130217061555</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.79211899951547</v>
@@ -50138,7 +49874,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.630805801785842</v>
+        <v>1.656842740710656</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.902591403178007</v>
@@ -50227,7 +49963,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.680585605885223</v>
+        <v>1.69751384922168</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.585976630935519</v>
@@ -50316,7 +50052,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.716400168942371</v>
+        <v>1.724921445384315</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.516463750051475</v>
@@ -50405,7 +50141,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.743180625567834</v>
+        <v>1.746521532712614</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.564510699208113</v>
@@ -50494,7 +50230,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.77608401052093</v>
+        <v>1.776675374744188</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.626911801423552</v>
@@ -50583,7 +50319,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.775453850932334</v>
+        <v>1.779105988015089</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.884279879830641</v>
@@ -50672,7 +50408,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.778798436510837</v>
+        <v>1.779443471658639</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.772775148151053</v>
@@ -50761,7 +50497,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.774758722576291</v>
+        <v>1.774135470055622</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.644245695095566</v>
@@ -50850,7 +50586,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.790112618032808</v>
+        <v>1.787690968435379</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.948960327811252</v>
@@ -50939,7 +50675,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.776733277717517</v>
+        <v>1.772628638262255</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.222548336497959</v>
@@ -51028,7 +50764,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.778163356970483</v>
+        <v>1.778644739779837</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.098347155667704</v>
@@ -51117,7 +50853,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.775632044182</v>
+        <v>1.773965739921404</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.420941229822556</v>
@@ -51206,7 +50942,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.778053763946549</v>
+        <v>1.768480421951598</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.434676902556687</v>
@@ -51295,7 +51031,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.776141917680981</v>
+        <v>1.758996602963356</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.056833165247014</v>
@@ -51384,7 +51120,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.723821602232599</v>
+        <v>1.719209155160905</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.80491759378347</v>
@@ -51473,7 +51209,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.721501579587712</v>
+        <v>1.714536173467293</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.635426290320972</v>
@@ -51562,7 +51298,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.688545688233215</v>
+        <v>1.690852339440626</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.715813903513827</v>
@@ -51651,7 +51387,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.680703509903332</v>
+        <v>1.687471926408913</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.7637815940343</v>
@@ -51740,7 +51476,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.677401105014503</v>
+        <v>1.68095949349892</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.676109761485608</v>
@@ -51829,7 +51565,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.664289785854464</v>
+        <v>1.668124840729233</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.794847599596094</v>
@@ -51918,7 +51654,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.671405570638878</v>
+        <v>1.678977111109045</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.811324510534052</v>
@@ -52007,7 +51743,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.671730030369799</v>
+        <v>1.677430327693156</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.757191843808831</v>
@@ -52096,7 +51832,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.674390820896137</v>
+        <v>1.68250332640973</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.968968459940635</v>
@@ -52185,7 +51921,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.684086365521475</v>
+        <v>1.684843341478471</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.749759039036381</v>
@@ -52274,7 +52010,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.694751463342425</v>
+        <v>1.694408747478862</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.929030574475636</v>
@@ -52363,7 +52099,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.693106618008248</v>
+        <v>1.692860981720531</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.901343941074713</v>
@@ -52452,7 +52188,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.695421605838211</v>
+        <v>1.690061909536926</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.729885841859278</v>
@@ -52541,7 +52277,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.690893620316687</v>
+        <v>1.686525857167382</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.788093032505312</v>
@@ -52630,7 +52366,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.708045457761822</v>
+        <v>1.700788877899683</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.026222809838259</v>
@@ -52719,7 +52455,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.744079519263497</v>
+        <v>1.734443385898892</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.927053298401851</v>
@@ -52808,7 +52544,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.742256913211766</v>
+        <v>1.733759644045981</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.582606202833511</v>
@@ -52897,7 +52633,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.7436861352518</v>
+        <v>1.735261671503805</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.65531333233935</v>
@@ -52986,7 +52722,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.749606061358884</v>
+        <v>1.740300525923361</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.658600990080985</v>
@@ -53075,7 +52811,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.763041632662535</v>
+        <v>1.753562298655618</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.936860526203169</v>
@@ -53164,7 +52900,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.776859078760456</v>
+        <v>1.762459066444226</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.752920799825759</v>
@@ -53253,7 +52989,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.769754037069564</v>
+        <v>1.749474115263826</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.544156009784986</v>
@@ -53342,7 +53078,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.751198111302018</v>
+        <v>1.733129624453806</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.591971290882755</v>
@@ -53431,7 +53167,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.740188023121174</v>
+        <v>1.719045177882915</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.517475377463444</v>
@@ -53520,7 +53256,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.751492716664458</v>
+        <v>1.735571949901089</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.614546123222863</v>
@@ -53609,7 +53345,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.751076851641494</v>
+        <v>1.734589249287727</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.658376494771303</v>
@@ -53698,7 +53434,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.746086843194191</v>
+        <v>1.723224596244568</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.624709860456833</v>
@@ -53787,7 +53523,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.738392456405518</v>
+        <v>1.717888669937009</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.732758141098224</v>
@@ -53876,7 +53612,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.73556849324007</v>
+        <v>1.720118026806386</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.616736025216944</v>
@@ -53965,7 +53701,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.734342435178817</v>
+        <v>1.720727371283432</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.542399700097499</v>
@@ -54054,7 +53790,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.721855579563403</v>
+        <v>1.706648968037795</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.658537860626708</v>
@@ -54143,7 +53879,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.720566409793472</v>
+        <v>1.70516021705419</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.419750864410986</v>
@@ -54232,7 +53968,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.66770089100227</v>
+        <v>1.664770050271139</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.342546975626321</v>
@@ -54321,7 +54057,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.66523357757143</v>
+        <v>1.664680888446124</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.386808986715796</v>
@@ -54410,7 +54146,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.65820341398261</v>
+        <v>1.658447883089013</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.412314658221527</v>
@@ -54499,7 +54235,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.654710890596657</v>
+        <v>1.651846326634371</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.415638776979827</v>
@@ -54588,7 +54324,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.651109722467055</v>
+        <v>1.655120812822853</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.336275668622303</v>
@@ -54677,7 +54413,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.654950904762481</v>
+        <v>1.661116467321623</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.380660400548971</v>
@@ -54766,7 +54502,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.664673040299348</v>
+        <v>1.668797748410012</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.399937675871937</v>
@@ -54855,7 +54591,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.651244927219819</v>
+        <v>1.649724499052487</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.421475390313121</v>
@@ -54944,7 +54680,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.609741504591735</v>
+        <v>1.609798800849039</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.394682563029167</v>
@@ -55033,7 +54769,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.603991617083307</v>
+        <v>1.606933125938183</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.398616830657788</v>
@@ -55122,7 +54858,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.578931503495891</v>
+        <v>1.584636768538259</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.376445757751762</v>
@@ -55211,7 +54947,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.575742064893347</v>
+        <v>1.577793022332726</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.415475831180057</v>
@@ -55300,7 +55036,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.568759630270495</v>
+        <v>1.566790703284847</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.367805382394906</v>
@@ -55389,7 +55125,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.557004619220298</v>
+        <v>1.559301654940614</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.284826555295378</v>
@@ -55478,7 +55214,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.571676653225604</v>
+        <v>1.571114196282234</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.304072101862544</v>
@@ -55567,7 +55303,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.630846467207844</v>
+        <v>1.623383111132835</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.526271567396283</v>
@@ -55656,7 +55392,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.624609177264247</v>
+        <v>1.614888187598509</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.717277604391854</v>
@@ -55745,7 +55481,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.615216333358516</v>
+        <v>1.605239593990248</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.794535288162705</v>
@@ -55834,7 +55570,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.615294406796033</v>
+        <v>1.605519283083506</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.432523782456893</v>
@@ -55923,7 +55659,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.614161841275434</v>
+        <v>1.601623397632566</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.834656499802569</v>
@@ -56012,7 +55748,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.619555262551684</v>
+        <v>1.606029553168305</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.777351818644084</v>
@@ -56101,7 +55837,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.617497115759484</v>
+        <v>1.601584624532816</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.574241769594031</v>
@@ -56190,7 +55926,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.61851093526313</v>
+        <v>1.607807513772109</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.658849694873309</v>
@@ -56279,7 +56015,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.655412655628534</v>
+        <v>1.637789145109908</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.862850404286645</v>
@@ -56368,7 +56104,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.653519413068239</v>
+        <v>1.633614784468319</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.398227916090421</v>
@@ -56457,7 +56193,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.681687651538813</v>
+        <v>1.654777956617471</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.063424923647518</v>
@@ -56546,7 +56282,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.679220000074547</v>
+        <v>1.656247298690705</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.0192266893451</v>
@@ -56635,7 +56371,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.670832749674562</v>
+        <v>1.646992140762189</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.699228191177934</v>
@@ -56724,7 +56460,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.680118487823136</v>
+        <v>1.650586811173153</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.706295532009428</v>
@@ -56813,7 +56549,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.637420681598925</v>
+        <v>1.613757512682941</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.094010413037665</v>
@@ -56902,7 +56638,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.608098284372841</v>
+        <v>1.589185691611816</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.67563077794797</v>
@@ -56991,7 +56727,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.601953506514785</v>
+        <v>1.582001861855106</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.419937597975585</v>
@@ -57080,7 +56816,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.594965330188627</v>
+        <v>1.577469303278704</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.589990594654778</v>
@@ -57169,7 +56905,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.578361144284912</v>
+        <v>1.555910293156052</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.588251374630639</v>
@@ -57258,7 +56994,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.571511857606061</v>
+        <v>1.553957998824891</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.539669561072122</v>
@@ -57347,7 +57083,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.563042117592477</v>
+        <v>1.55102589502635</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.528845073088723</v>
@@ -57436,7 +57172,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.556030586713554</v>
+        <v>1.548634836607241</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.549022035910812</v>
@@ -57525,7 +57261,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.558176339747704</v>
+        <v>1.547374167847337</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.580013288307808</v>
@@ -57614,7 +57350,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.542362605663801</v>
+        <v>1.532870626591541</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.59874902167811</v>
@@ -57703,7 +57439,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.550154926932716</v>
+        <v>1.545204020212617</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.468245995221606</v>
